--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Số tờ</t>
   </si>
@@ -86,28 +86,37 @@
     <t>Loại HS</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
     <t>ODT</t>
   </si>
   <si>
     <t>CLN</t>
   </si>
   <si>
-    <t>ông Đinh Ngọc Tư và bà Lê Thị Bê</t>
-  </si>
-  <si>
-    <t>DL 538913</t>
-  </si>
-  <si>
-    <t>328/24</t>
-  </si>
-  <si>
-    <t>0842733357</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Ông Hồ Thanh Chước</t>
+  </si>
+  <si>
+    <t>27/12/2001</t>
+  </si>
+  <si>
+    <t>U 563421</t>
+  </si>
+  <si>
+    <t>47,9</t>
+  </si>
+  <si>
+    <t>0916487111</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>tăng 15,0 m2</t>
+  </si>
+  <si>
+    <t>366/24</t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,7 +217,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -440,6 +448,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -850,55 +988,61 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>298</v>
+        <v>99</v>
       </c>
       <c r="C2" s="7">
-        <v>382.6</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="8">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8">
-        <v>160</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" s="8">
-        <v>222.60000000000002</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="9">
-        <v>45415</v>
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2">
-        <v>382.6</v>
+        <v>244</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Số tờ</t>
   </si>
@@ -92,31 +92,28 @@
     <t>CLN</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Ông Hồ Thanh Chước</t>
-  </si>
-  <si>
-    <t>27/12/2001</t>
-  </si>
-  <si>
-    <t>U 563421</t>
-  </si>
-  <si>
-    <t>47,9</t>
-  </si>
-  <si>
-    <t>0916487111</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>tăng 15,0 m2</t>
-  </si>
-  <si>
-    <t>366/24</t>
+    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>Hộ bà Đinh Thị Thơi</t>
+  </si>
+  <si>
+    <t>27/12/2021</t>
+  </si>
+  <si>
+    <t>U 577726</t>
+  </si>
+  <si>
+    <t>giảm 35,4</t>
+  </si>
+  <si>
+    <t>146,2</t>
+  </si>
+  <si>
+    <t>0917565111</t>
   </si>
 </sst>
 </file>
@@ -578,6 +575,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -991,13 +1053,13 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7">
-        <v>259</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1006,43 +1068,40 @@
         <v>19</v>
       </c>
       <c r="G2" s="8">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="8">
-        <v>79</v>
+        <v>915.59999999999991</v>
       </c>
       <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>1251</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>244</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Số tờ</t>
   </si>
@@ -92,28 +92,25 @@
     <t>CLN</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>Hộ bà Đinh Thị Thơi</t>
-  </si>
-  <si>
-    <t>27/12/2021</t>
-  </si>
-  <si>
-    <t>U 577726</t>
-  </si>
-  <si>
-    <t>giảm 35,4</t>
-  </si>
-  <si>
-    <t>146,2</t>
-  </si>
-  <si>
-    <t>0917565111</t>
+    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Ông Hoàng Văn Khánh và bà Lê Thị Thuyết</t>
+  </si>
+  <si>
+    <t>29/1/2019</t>
+  </si>
+  <si>
+    <t>CQ 229051</t>
+  </si>
+  <si>
+    <t>234/24</t>
+  </si>
+  <si>
+    <t>0847488874</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
   </si>
 </sst>
 </file>
@@ -640,6 +637,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1050,16 +1112,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="C2" s="7">
-        <v>1215.5999999999999</v>
+        <v>600.79999999999995</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1068,40 +1130,40 @@
         <v>19</v>
       </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="8">
-        <v>915.59999999999991</v>
+        <v>400.79999999999995</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <v>614.29999999999995</v>
+      </c>
+      <c r="P2">
+        <v>55.2</v>
+      </c>
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="N2">
-        <v>1251</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="R2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Số tờ</t>
   </si>
@@ -92,25 +92,22 @@
     <t>CLN</t>
   </si>
   <si>
-    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Ông Hoàng Văn Khánh và bà Lê Thị Thuyết</t>
-  </si>
-  <si>
-    <t>29/1/2019</t>
-  </si>
-  <si>
-    <t>CQ 229051</t>
-  </si>
-  <si>
-    <t>234/24</t>
-  </si>
-  <si>
-    <t>0847488874</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Hồ Văn Hùng</t>
+  </si>
+  <si>
+    <t>19/3/2009</t>
+  </si>
+  <si>
+    <t>AO 863060</t>
+  </si>
+  <si>
+    <t>0345858399</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -702,6 +699,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1112,13 +1174,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C2" s="7">
-        <v>600.79999999999995</v>
+        <v>252.3</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1130,13 +1192,13 @@
         <v>19</v>
       </c>
       <c r="G2" s="8">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="8">
-        <v>400.79999999999995</v>
+        <v>112.30000000000001</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1151,19 +1213,16 @@
         <v>24</v>
       </c>
       <c r="N2">
-        <v>614.29999999999995</v>
-      </c>
-      <c r="P2">
-        <v>55.2</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2">
+        <v>-6.3</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" t="s">
         <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -86,28 +86,64 @@
     <t>Loại HS</t>
   </si>
   <si>
+    <t>CCCD1</t>
+  </si>
+  <si>
+    <t>HVTCSDĐ2</t>
+  </si>
+  <si>
+    <t>CCCD2</t>
+  </si>
+  <si>
+    <t>Số thửa củ</t>
+  </si>
+  <si>
+    <t>Số tờ củ</t>
+  </si>
+  <si>
+    <t>Đất ở củ</t>
+  </si>
+  <si>
+    <t>Loại đất khác</t>
+  </si>
+  <si>
     <t>ODT</t>
   </si>
   <si>
     <t>CLN</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Hồ Văn Hùng</t>
-  </si>
-  <si>
-    <t>19/3/2009</t>
-  </si>
-  <si>
-    <t>AO 863060</t>
-  </si>
-  <si>
-    <t>0345858399</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
+    <t>Năm sinh 1</t>
+  </si>
+  <si>
+    <t>Năm sinh 2</t>
+  </si>
+  <si>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>ĐẶNG ĐẠI TỰ</t>
+  </si>
+  <si>
+    <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>14/12/2016</t>
+  </si>
+  <si>
+    <t>CĐ 972533</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>045066000419</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ THỦY</t>
+  </si>
+  <si>
+    <t>045169002820</t>
   </si>
 </sst>
 </file>
@@ -813,6 +849,201 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -821,6 +1052,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NHAP"/>
+      <sheetName val="CX"/>
       <sheetName val="KeKhaiDangKy"/>
       <sheetName val="KeKhaiCanHo"/>
       <sheetName val="TaiSan"/>
@@ -839,6 +1071,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1107,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,58 +1404,109 @@
       <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B2">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7">
-        <v>252.3</v>
+        <v>1821.2</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>112.30000000000001</v>
+        <v>1746.2</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N2">
-        <v>246</v>
+        <v>1821</v>
       </c>
       <c r="O2">
-        <v>-6.3</v>
+        <v>-0.200000000000045</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2">
+        <v>50</v>
+      </c>
+      <c r="X2">
+        <v>48</v>
+      </c>
+      <c r="Y2">
+        <v>80</v>
+      </c>
+      <c r="Z2">
+        <v>1741</v>
+      </c>
+      <c r="AA2">
+        <v>1966</v>
+      </c>
+      <c r="AB2">
+        <v>1969</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -119,31 +119,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>ĐẶNG ĐẠI TỰ</t>
-  </si>
-  <si>
     <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
     <t>14/12/2016</t>
   </si>
   <si>
-    <t>CĐ 972533</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>045066000419</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ THỦY</t>
-  </si>
-  <si>
-    <t>045169002820</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>ĐẶNG ĐẠI PHƯỚC</t>
+  </si>
+  <si>
+    <t>CĐ 972535</t>
+  </si>
+  <si>
+    <t>045090000679</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ TUYỀN</t>
+  </si>
+  <si>
+    <t>045193000676</t>
   </si>
 </sst>
 </file>
@@ -995,6 +995,396 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1437,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7">
-        <v>1821.2</v>
+        <v>187.1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1452,34 +1842,31 @@
         <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>1746.2</v>
+        <v>132.1</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>320</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2">
-        <v>1821</v>
-      </c>
-      <c r="O2">
-        <v>-0.200000000000045</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>36</v>
@@ -1491,22 +1878,22 @@
         <v>38</v>
       </c>
       <c r="W2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X2">
         <v>48</v>
       </c>
       <c r="Y2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Z2">
-        <v>1741</v>
+        <v>270</v>
       </c>
       <c r="AA2">
-        <v>1966</v>
+        <v>1990</v>
       </c>
       <c r="AB2">
-        <v>1969</v>
+        <v>1993</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -86,34 +86,64 @@
     <t>Loại HS</t>
   </si>
   <si>
+    <t>CCCD1</t>
+  </si>
+  <si>
+    <t>HVTCSDĐ2</t>
+  </si>
+  <si>
+    <t>CCCD2</t>
+  </si>
+  <si>
+    <t>Số thửa củ</t>
+  </si>
+  <si>
+    <t>Số tờ củ</t>
+  </si>
+  <si>
+    <t>Đất ở củ</t>
+  </si>
+  <si>
+    <t>Loại đất khác</t>
+  </si>
+  <si>
     <t>ODT</t>
   </si>
   <si>
     <t>CLN</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>Hộ bà Đinh Thị Thơi</t>
-  </si>
-  <si>
-    <t>27/12/2021</t>
-  </si>
-  <si>
-    <t>U 577726</t>
-  </si>
-  <si>
-    <t>giảm 35,4</t>
-  </si>
-  <si>
-    <t>146,2</t>
-  </si>
-  <si>
-    <t>0917565111</t>
+    <t>Năm sinh 1</t>
+  </si>
+  <si>
+    <t>Năm sinh 2</t>
+  </si>
+  <si>
+    <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>14/12/2016</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>ĐẶNG ĐẠI PHƯỚC</t>
+  </si>
+  <si>
+    <t>CĐ 972535</t>
+  </si>
+  <si>
+    <t>045090000679</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ TUYỀN</t>
+  </si>
+  <si>
+    <t>045193000676</t>
   </si>
 </sst>
 </file>
@@ -689,6 +719,721 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -697,6 +1442,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NHAP"/>
+      <sheetName val="CX"/>
       <sheetName val="KeKhaiDangKy"/>
       <sheetName val="KeKhaiCanHo"/>
       <sheetName val="TaiSan"/>
@@ -715,6 +1461,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -983,13 +1730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,61 +1794,106 @@
       <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7">
-        <v>1215.5999999999999</v>
+        <v>187.1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>915.59999999999991</v>
+        <v>132.1</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N2">
-        <v>1251</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2">
+        <v>49</v>
+      </c>
+      <c r="X2">
+        <v>48</v>
+      </c>
+      <c r="Y2">
+        <v>50</v>
+      </c>
+      <c r="Z2">
+        <v>270</v>
+      </c>
+      <c r="AA2">
+        <v>1990</v>
+      </c>
+      <c r="AB2">
+        <v>1993</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,31 +119,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>14/12/2016</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>ĐẶNG ĐẠI PHƯỚC</t>
-  </si>
-  <si>
-    <t>CĐ 972535</t>
-  </si>
-  <si>
-    <t>045090000679</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ TUYỀN</t>
-  </si>
-  <si>
-    <t>045193000676</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Hồ Thị Lan Phụng</t>
+  </si>
+  <si>
+    <t>18/6/2004</t>
+  </si>
+  <si>
+    <t>Đ 608937</t>
+  </si>
+  <si>
+    <t>460/24</t>
+  </si>
+  <si>
+    <t>0942792390</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -1385,6 +1379,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1824,16 +1948,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C2" s="7">
-        <v>187.1</v>
+        <v>227.8</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1842,58 +1966,55 @@
         <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>132.1</v>
+        <v>127.80000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>178</v>
+      </c>
+      <c r="O2">
+        <v>-49.8</v>
+      </c>
+      <c r="P2">
+        <v>21.9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N2">
-        <v>320</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="9" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="W2">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="X2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="Y2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Z2">
-        <v>270</v>
-      </c>
-      <c r="AA2">
-        <v>1990</v>
-      </c>
-      <c r="AB2">
-        <v>1993</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -119,25 +119,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Hồ Thị Lan Phụng</t>
-  </si>
-  <si>
-    <t>18/6/2004</t>
-  </si>
-  <si>
-    <t>Đ 608937</t>
-  </si>
-  <si>
-    <t>460/24</t>
-  </si>
-  <si>
-    <t>0942792390</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Hộ bà Phan Thị Thiềm</t>
+  </si>
+  <si>
+    <t>27/12/2001</t>
+  </si>
+  <si>
+    <t>U 563532</t>
+  </si>
+  <si>
+    <t>462/24</t>
+  </si>
+  <si>
+    <t>0849557345</t>
   </si>
 </sst>
 </file>
@@ -1509,6 +1509,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1948,16 +2013,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B2">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="C2" s="7">
-        <v>227.8</v>
+        <v>997.6</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1966,55 +2031,52 @@
         <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>127.80000000000001</v>
+        <v>697.6</v>
       </c>
       <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2">
+        <v>1036</v>
+      </c>
+      <c r="P2">
+        <v>103.5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2">
-        <v>178</v>
-      </c>
-      <c r="O2">
-        <v>-49.8</v>
-      </c>
-      <c r="P2">
-        <v>21.9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
       <c r="W2">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="X2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Y2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z2">
-        <v>78</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,25 +119,22 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Hộ bà Phan Thị Thiềm</t>
-  </si>
-  <si>
-    <t>27/12/2001</t>
-  </si>
-  <si>
-    <t>U 563532</t>
-  </si>
-  <si>
-    <t>462/24</t>
-  </si>
-  <si>
-    <t>0849557345</t>
+    <t>1156,1</t>
+  </si>
+  <si>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>Võ Ngọc Đăng và bà Đặng Thị Phúc</t>
+  </si>
+  <si>
+    <t>DL 424780</t>
+  </si>
+  <si>
+    <t>0941258357</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
   </si>
 </sst>
 </file>
@@ -216,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,6 +236,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,6 +1572,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2013,13 +2076,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>193</v>
-      </c>
-      <c r="C2" s="7">
-        <v>997.6</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -2031,13 +2094,13 @@
         <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>697.6</v>
+        <v>11461</v>
       </c>
       <c r="J2" t="s">
         <v>32</v>
@@ -2045,38 +2108,29 @@
       <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="10">
+        <v>45505</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>370</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N2">
-        <v>1036</v>
-      </c>
-      <c r="P2">
-        <v>103.5</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>227</v>
-      </c>
-      <c r="X2">
-        <v>13</v>
-      </c>
       <c r="Y2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z2">
-        <v>736</v>
+        <v>1056.0999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,22 +119,22 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>1156,1</t>
-  </si>
-  <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>Võ Ngọc Đăng và bà Đặng Thị Phúc</t>
-  </si>
-  <si>
-    <t>DL 424780</t>
-  </si>
-  <si>
-    <t>0941258357</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nguyên</t>
+  </si>
+  <si>
+    <t>AN 218148</t>
+  </si>
+  <si>
+    <t>481/24</t>
+  </si>
+  <si>
+    <t>0915658062</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -1637,6 +1637,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2076,16 +2141,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2047.5</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2094,43 +2159,40 @@
         <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>11461</v>
+        <v>1747.5</v>
       </c>
       <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10">
+        <v>39700</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10">
-        <v>45505</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <v>2252</v>
+      </c>
+      <c r="O2">
+        <v>204.5</v>
+      </c>
+      <c r="Q2" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2">
-        <v>370</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="S2" t="s">
         <v>35</v>
-      </c>
-      <c r="Y2">
-        <v>100</v>
-      </c>
-      <c r="Z2">
-        <v>1056.0999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,19 +119,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nguyên</t>
-  </si>
-  <si>
-    <t>AN 218148</t>
-  </si>
-  <si>
-    <t>481/24</t>
-  </si>
-  <si>
-    <t>0915658062</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Hộ ông Ngô Văn Huệ</t>
+  </si>
+  <si>
+    <t>27/12/2001</t>
+  </si>
+  <si>
+    <t>U 577214</t>
+  </si>
+  <si>
+    <t>246,1</t>
+  </si>
+  <si>
+    <t>483/24</t>
+  </si>
+  <si>
+    <t>0343090721</t>
   </si>
   <si>
     <t>Cấp đổi</t>
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,7 +242,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,6 +1707,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2144,10 +2279,10 @@
         <v>51</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7">
-        <v>2047.5</v>
+        <v>7943</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -2165,7 +2300,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>1747.5</v>
+        <v>7643</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
@@ -2173,26 +2308,35 @@
       <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10">
-        <v>39700</v>
+      <c r="L2" t="s">
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2">
-        <v>2252</v>
+        <v>7932</v>
       </c>
       <c r="O2">
-        <v>204.5</v>
+        <v>-11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="W2">
+        <v>66</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,28 +119,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Hộ ông Ngô Văn Huệ</t>
-  </si>
-  <si>
     <t>27/12/2001</t>
   </si>
   <si>
-    <t>U 577214</t>
-  </si>
-  <si>
-    <t>246,1</t>
-  </si>
-  <si>
-    <t>483/24</t>
-  </si>
-  <si>
-    <t>0343090721</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Ông Trần Hữu Ngọc và bà Nguyễn Thị Thọ</t>
+  </si>
+  <si>
+    <t>U 577025</t>
+  </si>
+  <si>
+    <t>482/24</t>
+  </si>
+  <si>
+    <t>0399998448</t>
   </si>
 </sst>
 </file>
@@ -1837,6 +1834,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Rounded Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rounded Rectangle 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2276,16 +2338,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7">
-        <v>7943</v>
+        <v>1177.4000000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2294,34 +2356,31 @@
         <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>7643</v>
+        <v>1027.4000000000001</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2">
-        <v>7932</v>
+        <v>1176</v>
       </c>
       <c r="O2">
-        <v>-11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
+        <v>-1.4000000000000901</v>
       </c>
       <c r="Q2" t="s">
         <v>35</v>
@@ -2330,13 +2389,13 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W2">
         <v>66</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,25 +119,22 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>27/12/2001</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
     <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Ông Trần Hữu Ngọc và bà Nguyễn Thị Thọ</t>
-  </si>
-  <si>
-    <t>U 577025</t>
-  </si>
-  <si>
-    <t>482/24</t>
-  </si>
-  <si>
-    <t>0399998448</t>
+    <t>Lê Anh Văn</t>
+  </si>
+  <si>
+    <t>CH 075279</t>
+  </si>
+  <si>
+    <t>484/24</t>
+  </si>
+  <si>
+    <t>0867874357</t>
   </si>
 </sst>
 </file>
@@ -216,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,6 +236,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1899,6 +1897,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Rounded Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2338,16 +2401,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C2" s="7">
-        <v>1177.4000000000001</v>
+        <v>265.8</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2356,46 +2419,40 @@
         <v>26</v>
       </c>
       <c r="G2" s="8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="8">
-        <v>1027.4000000000001</v>
+        <v>165.8</v>
       </c>
       <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10">
+        <v>43073</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2">
+        <v>284</v>
+      </c>
+      <c r="O2">
+        <v>18.2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
         <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2">
-        <v>1176</v>
-      </c>
-      <c r="O2">
-        <v>-1.4000000000000901</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2">
-        <v>66</v>
-      </c>
-      <c r="X2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -107,9 +107,6 @@
     <t>Loại đất khác</t>
   </si>
   <si>
-    <t>ODT</t>
-  </si>
-  <si>
     <t>CLN</t>
   </si>
   <si>
@@ -119,22 +116,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Trần Văn Đông</t>
+  </si>
+  <si>
+    <t>25/7/2012</t>
+  </si>
+  <si>
+    <t>BL 851027</t>
+  </si>
+  <si>
+    <t>461/24</t>
+  </si>
+  <si>
+    <t>0965257278</t>
+  </si>
+  <si>
     <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Lê Anh Văn</t>
-  </si>
-  <si>
-    <t>CH 075279</t>
-  </si>
-  <si>
-    <t>484/24</t>
-  </si>
-  <si>
-    <t>0867874357</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,7 +236,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1962,6 +1961,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2393,66 +2652,65 @@
         <v>25</v>
       </c>
       <c r="AA1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7">
-        <v>265.8</v>
+        <v>11958.1</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="8">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="8">
-        <v>165.8</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10">
-        <v>43073</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <v>10330</v>
+      </c>
+      <c r="O2">
+        <v>-1628.1</v>
+      </c>
+      <c r="P2">
+        <v>2401.5</v>
+      </c>
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="N2">
-        <v>284</v>
-      </c>
-      <c r="O2">
-        <v>18.2</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
-        <v>30</v>
+      <c r="W2">
+        <v>141</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -116,25 +116,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Trần Văn Đông</t>
-  </si>
-  <si>
-    <t>25/7/2012</t>
-  </si>
-  <si>
-    <t>BL 851027</t>
-  </si>
-  <si>
-    <t>461/24</t>
-  </si>
-  <si>
-    <t>0965257278</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>Ông Võ Ngọc Đăng và bà Đặng Thị Phúc</t>
+  </si>
+  <si>
+    <t>DL 424780</t>
+  </si>
+  <si>
+    <t>370/24</t>
+  </si>
+  <si>
+    <t>0941258357</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +236,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2221,6 +2222,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rounded Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2660,42 +2791,46 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7">
-        <v>11958.1</v>
+        <v>1156.0999999999999</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8">
+        <v>100</v>
+      </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="8">
+        <v>1056.0999999999999</v>
+      </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
+      <c r="L2" s="10">
+        <v>45299</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2">
-        <v>10330</v>
-      </c>
-      <c r="O2">
-        <v>-1628.1</v>
-      </c>
-      <c r="P2">
-        <v>2401.5</v>
+        <v>1156.0999999999999</v>
       </c>
       <c r="Q2" t="s">
         <v>33</v>
@@ -2705,12 +2840,6 @@
       </c>
       <c r="S2" t="s">
         <v>35</v>
-      </c>
-      <c r="W2">
-        <v>141</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,25 +116,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
     <t>ODT</t>
   </si>
   <si>
-    <t>Ông Võ Ngọc Đăng và bà Đặng Thị Phúc</t>
-  </si>
-  <si>
-    <t>DL 424780</t>
-  </si>
-  <si>
-    <t>370/24</t>
-  </si>
-  <si>
-    <t>0941258357</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sơn</t>
+  </si>
+  <si>
+    <t>27/12/2001</t>
+  </si>
+  <si>
+    <t>U 577269</t>
+  </si>
+  <si>
+    <t>506/24</t>
+  </si>
+  <si>
+    <t>0946654666</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,7 +239,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2352,6 +2354,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2791,55 +2858,67 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7">
-        <v>1156.0999999999999</v>
+        <v>2522.5</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="8">
-        <v>1056.0999999999999</v>
+        <v>2222.5</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="10">
-        <v>45299</v>
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2">
-        <v>1156.0999999999999</v>
+        <v>2584</v>
+      </c>
+      <c r="O2">
+        <v>61.5</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>12</v>
+      </c>
+      <c r="X2">
+        <v>30</v>
+      </c>
+      <c r="Y2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -119,25 +119,25 @@
     <t>ODT</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Sơn</t>
-  </si>
-  <si>
-    <t>27/12/2001</t>
-  </si>
-  <si>
-    <t>U 577269</t>
-  </si>
-  <si>
-    <t>506/24</t>
-  </si>
-  <si>
-    <t>0946654666</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Ông Hồ Thanh Chước</t>
+  </si>
+  <si>
+    <t>47,9</t>
+  </si>
+  <si>
+    <t>0916487111</t>
+  </si>
+  <si>
+    <t>DO 744309</t>
+  </si>
+  <si>
+    <t>539/24</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,6 +239,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2419,6 +2420,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rounded Rectangle 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2858,16 +2989,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C2" s="7">
-        <v>2522.5</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2876,49 +3007,37 @@
         <v>29</v>
       </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="8">
-        <v>2222.5</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="10">
+        <v>45600</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2">
-        <v>2584</v>
-      </c>
-      <c r="O2">
-        <v>61.5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2">
-        <v>12</v>
-      </c>
-      <c r="X2">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Số tờ</t>
   </si>
@@ -107,37 +107,10 @@
     <t>Loại đất khác</t>
   </si>
   <si>
-    <t>CLN</t>
-  </si>
-  <si>
     <t>Năm sinh 1</t>
   </si>
   <si>
     <t>Năm sinh 2</t>
-  </si>
-  <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Ông Hồ Thanh Chước</t>
-  </si>
-  <si>
-    <t>47,9</t>
-  </si>
-  <si>
-    <t>0916487111</t>
-  </si>
-  <si>
-    <t>DO 744309</t>
-  </si>
-  <si>
-    <t>539/24</t>
   </si>
 </sst>
 </file>
@@ -216,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,8 +211,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,6 +2521,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="Rounded Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2981,64 +3017,16 @@
         <v>25</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>99</v>
-      </c>
-      <c r="C2" s="7">
-        <v>259</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8">
-        <v>180</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="8">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10">
-        <v>45600</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -111,6 +111,33 @@
   </si>
   <si>
     <t>Năm sinh 2</t>
+  </si>
+  <si>
+    <t>Khối 5, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>CLN</t>
+  </si>
+  <si>
+    <t>Hà Ngọc Lãnh</t>
+  </si>
+  <si>
+    <t>27/6/2019</t>
+  </si>
+  <si>
+    <t>CQ 229382</t>
+  </si>
+  <si>
+    <t>554/24</t>
+  </si>
+  <si>
+    <t>0392564337</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
   </si>
 </sst>
 </file>
@@ -189,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -211,6 +238,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2586,6 +2614,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rounded Rectangle 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3024,9 +3117,54 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>840</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="8">
+        <v>680</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 5, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
     <t>ODT</t>
   </si>
   <si>
-    <t>CLN</t>
-  </si>
-  <si>
-    <t>Hà Ngọc Lãnh</t>
-  </si>
-  <si>
-    <t>27/6/2019</t>
-  </si>
-  <si>
-    <t>CQ 229382</t>
-  </si>
-  <si>
-    <t>554/24</t>
-  </si>
-  <si>
-    <t>0392564337</t>
-  </si>
-  <si>
     <t>Tách thửa</t>
+  </si>
+  <si>
+    <t>735,0</t>
+  </si>
+  <si>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Lê Thanh Binh và bà Trần Thị Hoa</t>
+  </si>
+  <si>
+    <t>16/3/2018</t>
+  </si>
+  <si>
+    <t>CK 373383</t>
+  </si>
+  <si>
+    <t>379/24</t>
+  </si>
+  <si>
+    <t>0946654666</t>
   </si>
 </sst>
 </file>
@@ -2679,6 +2679,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="Rounded Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rounded Rectangle 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3118,52 +3183,55 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7">
-        <v>840</v>
+        <v>160</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8">
+        <v>100</v>
+      </c>
+      <c r="I2" s="8">
+        <v>7250</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>160</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="8">
-        <v>680</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
+      <c r="Y2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,25 @@
     <t>ODT</t>
   </si>
   <si>
-    <t>Tách thửa</t>
-  </si>
-  <si>
-    <t>735,0</t>
-  </si>
-  <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Lê Thanh Binh và bà Trần Thị Hoa</t>
-  </si>
-  <si>
-    <t>16/3/2018</t>
-  </si>
-  <si>
-    <t>CK 373383</t>
-  </si>
-  <si>
-    <t>379/24</t>
-  </si>
-  <si>
-    <t>0946654666</t>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Trần Quang An và bà Âu Nguyễn Thùy Linh</t>
+  </si>
+  <si>
+    <t>13/6/2022</t>
+  </si>
+  <si>
+    <t>DB 849766</t>
+  </si>
+  <si>
+    <t>685/24</t>
+  </si>
+  <si>
+    <t>0845556555</t>
+  </si>
+  <si>
+    <t>Cấp bổ sung tài sản</t>
   </si>
 </sst>
 </file>
@@ -2744,6 +2741,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="Rounded Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rounded Rectangle 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3183,16 +3245,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>160</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>642</v>
+      </c>
+      <c r="C2" s="7">
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3201,37 +3263,34 @@
         <v>28</v>
       </c>
       <c r="G2" s="8">
-        <v>100</v>
+        <v>180</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
       </c>
       <c r="I2" s="8">
-        <v>7250</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,25 +116,28 @@
     <t>ODT</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Trần Quang An và bà Âu Nguyễn Thùy Linh</t>
-  </si>
-  <si>
-    <t>13/6/2022</t>
-  </si>
-  <si>
-    <t>DB 849766</t>
-  </si>
-  <si>
-    <t>685/24</t>
-  </si>
-  <si>
-    <t>0845556555</t>
-  </si>
-  <si>
-    <t>Cấp bổ sung tài sản</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Lê Thanh Binh và bà Trần Thị Hoa</t>
+  </si>
+  <si>
+    <t>13/6/2018</t>
+  </si>
+  <si>
+    <t>CK 373383</t>
+  </si>
+  <si>
+    <t>65,4</t>
+  </si>
+  <si>
+    <t>711/24</t>
+  </si>
+  <si>
+    <t>0946654666</t>
+  </si>
+  <si>
+    <t>Tách thửa, Hợp thửa</t>
   </si>
 </sst>
 </file>
@@ -2806,6 +2809,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Rounded Rectangle 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3245,13 +3378,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2">
-        <v>642</v>
+        <v>160</v>
       </c>
       <c r="C2" s="7">
-        <v>226</v>
+        <v>735</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3263,13 +3396,13 @@
         <v>28</v>
       </c>
       <c r="G2" s="8">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I2" s="8">
-        <v>46</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
@@ -3283,14 +3416,17 @@
       <c r="M2" t="s">
         <v>32</v>
       </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -2939,6 +2939,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,31 @@
     <t>ODT</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Lê Thanh Binh và bà Trần Thị Hoa</t>
-  </si>
-  <si>
-    <t>13/6/2018</t>
-  </si>
-  <si>
-    <t>CK 373383</t>
-  </si>
-  <si>
-    <t>65,4</t>
-  </si>
-  <si>
-    <t>711/24</t>
-  </si>
-  <si>
-    <t>0946654666</t>
-  </si>
-  <si>
-    <t>Tách thửa, Hợp thửa</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>CLN</t>
+  </si>
+  <si>
+    <t>Phan Văn Ngọ và bà Trương Thị Hồng</t>
+  </si>
+  <si>
+    <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>23/6/2008</t>
+  </si>
+  <si>
+    <t>AL 197340</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <t>0914090588</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -3069,6 +3072,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3508,13 +3576,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="C2" s="7">
-        <v>735</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3528,35 +3596,41 @@
       <c r="G2" s="8">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>2</v>
+      <c r="H2" t="s">
+        <v>30</v>
       </c>
       <c r="I2" s="8">
-        <v>635</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="N2">
+        <v>248</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -122,25 +122,22 @@
     <t>CLN</t>
   </si>
   <si>
-    <t>Phan Văn Ngọ và bà Trương Thị Hồng</t>
+    <t>Ông Vũ Văn Thìn và bà Nguyễn Thị Hồi</t>
   </si>
   <si>
-    <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>19/4/2022</t>
   </si>
   <si>
-    <t>23/6/2008</t>
+    <t>DB 849231</t>
   </si>
   <si>
-    <t>AL 197340</t>
+    <t>500/24</t>
   </si>
   <si>
-    <t>17,4</t>
+    <t>0974137111</t>
   </si>
   <si>
-    <t>0914090588</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
+    <t>Tách thửa</t>
   </si>
 </sst>
 </file>
@@ -3137,6 +3134,201 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rounded Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rounded Rectangle 48"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3576,13 +3768,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="C2" s="7">
-        <v>248</v>
+        <v>1108.2</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3594,43 +3786,43 @@
         <v>28</v>
       </c>
       <c r="G2" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="8">
-        <v>148</v>
+        <v>808.2</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <v>1108</v>
+      </c>
+      <c r="O2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="N2">
-        <v>248</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
       <c r="Y2">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,25 @@
     <t>ODT</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>0972554666</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
   <si>
     <t>CLN</t>
   </si>
   <si>
-    <t>Ông Vũ Văn Thìn và bà Nguyễn Thị Hồi</t>
+    <t>Nguyễn Thị Loan</t>
   </si>
   <si>
-    <t>19/4/2022</t>
+    <t>AB 595079</t>
   </si>
   <si>
-    <t>DB 849231</t>
-  </si>
-  <si>
-    <t>500/24</t>
-  </si>
-  <si>
-    <t>0974137111</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
+    <t>815/24</t>
   </si>
 </sst>
 </file>
@@ -216,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,6 +236,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3329,6 +3327,396 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Rounded Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rounded Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rounded Rectangle 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rounded Rectangle 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rounded Rectangle 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3768,13 +4156,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="C2" s="7">
-        <v>1108.2</v>
+        <v>1370.7</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3786,43 +4174,49 @@
         <v>28</v>
       </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="8">
-        <v>808.2</v>
+        <v>1200.7</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>32</v>
+      <c r="L2" s="10">
+        <v>38478</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2">
-        <v>1108</v>
+        <v>2406</v>
       </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>1035.3</v>
+      </c>
+      <c r="P2">
+        <v>29.8</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2">
-        <v>300</v>
+        <v>31</v>
+      </c>
+      <c r="W2">
+        <v>61</v>
+      </c>
+      <c r="X2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -113,28 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>0972554666</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
     <t>CLN</t>
   </si>
   <si>
-    <t>Nguyễn Thị Loan</t>
+    <t>Thôn Quyết Tâm, xã Tân Hợp, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>AB 595079</t>
+    <t>ONT</t>
   </si>
   <si>
-    <t>815/24</t>
+    <t>Đoàn Thanh Điểm và bà Nguyễn Thị Mỹ Nhân</t>
+  </si>
+  <si>
+    <t>BA 637622</t>
+  </si>
+  <si>
+    <t>822/24</t>
+  </si>
+  <si>
+    <t>0935555616</t>
   </si>
 </sst>
 </file>
@@ -3717,6 +3717,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="Rounded Rectangle 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rounded Rectangle 55"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4156,67 +4221,70 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="C2" s="7">
-        <v>1370.7</v>
+        <v>368.2</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="8">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8">
+        <v>268.2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10">
+        <v>40400</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>400</v>
+      </c>
+      <c r="O2">
+        <v>31.8</v>
+      </c>
+      <c r="P2">
+        <v>89.3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="8">
-        <v>170</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1200.7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="10">
-        <v>38478</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2">
-        <v>2406</v>
-      </c>
-      <c r="O2">
-        <v>1035.3</v>
-      </c>
-      <c r="P2">
-        <v>29.8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
       <c r="W2">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="X2">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -113,28 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>Thôn An Tiêm, xã Tân Thành, huyện Hướng Hóa</t>
   </si>
   <si>
     <t>CLN</t>
   </si>
   <si>
-    <t>Thôn Quyết Tâm, xã Tân Hợp, huyện Hướng Hóa</t>
+    <t>Nguyễn Khắc Việt</t>
   </si>
   <si>
-    <t>ONT</t>
+    <t>DL 538026</t>
   </si>
   <si>
-    <t>Đoàn Thanh Điểm và bà Nguyễn Thị Mỹ Nhân</t>
+    <t>812/24</t>
   </si>
   <si>
-    <t>BA 637622</t>
+    <t>0977320379</t>
   </si>
   <si>
-    <t>822/24</t>
-  </si>
-  <si>
-    <t>0935555616</t>
+    <t>Trích lục</t>
   </si>
 </sst>
 </file>
@@ -3782,6 +3782,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="56" name="Rounded Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rounded Rectangle 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rounded Rectangle 57"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4221,67 +4351,55 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>156</v>
+        <v>406</v>
       </c>
       <c r="C2" s="7">
-        <v>368.2</v>
+        <v>191.6</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="8">
         <v>100</v>
       </c>
       <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="8">
+        <v>91.6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="8">
-        <v>268.2</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" s="10">
+        <v>45445</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="10">
-        <v>40400</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <v>191.6</v>
+      </c>
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="N2">
-        <v>400</v>
-      </c>
-      <c r="O2">
-        <v>31.8</v>
-      </c>
-      <c r="P2">
-        <v>89.3</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" t="s">
         <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2">
-        <v>252</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
       </c>
       <c r="Y2">
         <v>100</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,25 +116,22 @@
     <t>ODT</t>
   </si>
   <si>
-    <t>Thôn An Tiêm, xã Tân Thành, huyện Hướng Hóa</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>CLN</t>
+    <t>Ông Nguyễn Quốc Khánh và bà Lê Thị Lan</t>
   </si>
   <si>
-    <t>Nguyễn Khắc Việt</t>
+    <t>DL 434388</t>
   </si>
   <si>
-    <t>DL 538026</t>
+    <t>808/24</t>
   </si>
   <si>
-    <t>812/24</t>
+    <t>0392678236</t>
   </si>
   <si>
-    <t>0977320379</t>
-  </si>
-  <si>
-    <t>Trích lục</t>
+    <t>Tách thửa</t>
   </si>
 </sst>
 </file>
@@ -3912,6 +3909,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="Rounded Rectangle 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rounded Rectangle 59"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4351,13 +4478,13 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B2">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7">
-        <v>191.6</v>
+        <v>9676.7999999999993</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -4369,40 +4496,40 @@
         <v>28</v>
       </c>
       <c r="G2" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
+      <c r="H2">
+        <v>9376.7999999999993</v>
       </c>
       <c r="I2" s="8">
-        <v>91.6</v>
+        <v>9376.7999999999993</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="10">
-        <v>45445</v>
+        <v>45113</v>
       </c>
       <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2">
+        <v>9676.7999999999993</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="N2">
-        <v>191.6</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" t="s">
         <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,22 +113,22 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>ODT</t>
+    <t>1108,1</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Ông Nguyễn Quốc Khánh và bà Lê Thị Lan</t>
+    <t>Vũ Văn Thìn và bà Nguyễn Thị Hồi</t>
   </si>
   <si>
-    <t>DL 434388</t>
+    <t>DB 849231</t>
   </si>
   <si>
-    <t>808/24</t>
+    <t>813/24</t>
   </si>
   <si>
-    <t>0392678236</t>
+    <t>0974137111</t>
   </si>
   <si>
     <t>Tách thửa</t>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,6 +203,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -230,10 +245,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4039,6 +4062,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="60" name="Rounded Rectangle 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4384,13 +4537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4476,60 +4629,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>56</v>
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>65</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" s="7">
+        <v>174</v>
       </c>
-      <c r="C2" s="7">
-        <v>9676.7999999999993</v>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
         <v>300</v>
       </c>
-      <c r="H2">
-        <v>9376.7999999999993</v>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>10781</v>
       </c>
-      <c r="I2" s="8">
-        <v>9376.7999999999993</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="10">
-        <v>45113</v>
+      <c r="L2" s="9">
+        <v>45357</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N2">
-        <v>9676.7999999999993</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,25 +113,22 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>1108,1</t>
+    <t>428,9</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Vũ Văn Thìn và bà Nguyễn Thị Hồi</t>
+    <t>Lê Quang Thừa</t>
   </si>
   <si>
-    <t>DB 849231</t>
+    <t>905/24</t>
   </si>
   <si>
-    <t>813/24</t>
+    <t>0938717189</t>
   </si>
   <si>
-    <t>0974137111</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
+    <t>Hợp thức hóa</t>
   </si>
 </sst>
 </file>
@@ -225,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,9 +248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4192,6 +4186,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rounded Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rounded Rectangle 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4629,12 +4753,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
@@ -4649,31 +4773,27 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7">
-        <v>10781</v>
+        <v>3989</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="9">
-        <v>45357</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
@@ -4685,7 +4805,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,19 +113,22 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>428,9</t>
+    <t>83,7</t>
   </si>
   <si>
-    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Lê Quang Thừa</t>
+    <t>Nguyễn Thị Minh Dung</t>
   </si>
   <si>
-    <t>905/24</t>
+    <t>904/24</t>
   </si>
   <si>
-    <t>0938717189</t>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>0977005064</t>
   </si>
   <si>
     <t>Hợp thức hóa</t>
@@ -222,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,6 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4316,6 +4322,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="64" name="Rounded Rectangle 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rounded Rectangle 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rounded Rectangle 65"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4753,12 +4889,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>28</v>
@@ -4768,32 +4904,28 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>300</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>3989</v>
-      </c>
+      <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="Q2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>32</v>
+      <c r="R2" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,25 +113,37 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>83,7</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Lê Thị Gái</t>
   </si>
   <si>
-    <t>Nguyễn Thị Minh Dung</t>
+    <t>Xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>904/24</t>
+    <t>20/05/2005</t>
   </si>
   <si>
-    <t>12,3</t>
+    <t>AB 595096</t>
   </si>
   <si>
-    <t>0977005064</t>
+    <t>giảm 38 m2</t>
   </si>
   <si>
-    <t>Hợp thức hóa</t>
+    <t>29,8</t>
+  </si>
+  <si>
+    <t>887/24</t>
+  </si>
+  <si>
+    <t>0985110209</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -225,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,6 +269,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4452,6 +4467,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="66" name="Rounded Rectangle 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rounded Rectangle 66"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4889,45 +4969,59 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7">
-        <v>338</v>
+        <v>222</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
+      <c r="C2" s="11">
+        <v>276</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="11">
+        <v>145</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7">
+        <v>131</v>
+      </c>
       <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="L2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="Q2" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -4937,7 +5031,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,19 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Đô Thị</t>
   </si>
   <si>
-    <t>Lê Thị Gái</t>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Lê Hữu Lân</t>
   </si>
   <si>
-    <t>20/05/2005</t>
+    <t>DO 744340</t>
   </si>
   <si>
-    <t>AB 595096</t>
-  </si>
-  <si>
-    <t>giảm 38 m2</t>
-  </si>
-  <si>
-    <t>29,8</t>
-  </si>
-  <si>
-    <t>887/24</t>
-  </si>
-  <si>
-    <t>0985110209</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
+    <t>636/23</t>
   </si>
 </sst>
 </file>
@@ -237,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,9 +248,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4532,6 +4511,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="67" name="Rounded Rectangle 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rounded Rectangle 67"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4971,56 +5015,48 @@
     </row>
     <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
-        <v>222</v>
+        <v>269</v>
       </c>
-      <c r="C2" s="11">
-        <v>276</v>
+      <c r="C2" s="10">
+        <v>840</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="11">
-        <v>145</v>
+      <c r="G2" s="10">
+        <v>300</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>131</v>
+      <c r="I2" s="10">
+        <v>540</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
+      <c r="L2" s="9">
+        <v>45405</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -5031,7 +5067,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,19 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Đô Thị</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>ODT</t>
   </si>
   <si>
-    <t>Lê Hữu Lân</t>
+    <t>CLN</t>
   </si>
   <si>
-    <t>DO 744340</t>
+    <t>Ông Đinh Song Hào và bà Phan Thị Thái Lan</t>
   </si>
   <si>
-    <t>636/23</t>
+    <t>16/6/2004</t>
+  </si>
+  <si>
+    <t>Đ 608834</t>
+  </si>
+  <si>
+    <t>820/24</t>
+  </si>
+  <si>
+    <t>0972554666</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,26 +212,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,18 +236,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4576,6 +4564,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="Rounded Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rounded Rectangle 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rounded Rectangle 69"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4921,13 +5039,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5013,61 +5131,69 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>75</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>84</v>
       </c>
-      <c r="B2" s="7">
-        <v>269</v>
+      <c r="B2">
+        <v>349</v>
       </c>
-      <c r="C2" s="10">
-        <v>840</v>
+      <c r="C2" s="7">
+        <v>643.79999999999995</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10">
-        <v>300</v>
+      <c r="G2" s="8">
+        <v>100</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="10">
-        <v>540</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
+      <c r="I2" s="8">
+        <v>543.79999999999995</v>
       </c>
-      <c r="L2" s="9">
-        <v>45405</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>677</v>
+      </c>
+      <c r="O2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="P2">
+        <v>18.5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>156</v>
+      </c>
+      <c r="X2">
         <v>28</v>
-      </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>ODT</t>
+    <t>Lê Hữu Lân</t>
   </si>
   <si>
-    <t>CLN</t>
+    <t>23/04/2024</t>
   </si>
   <si>
-    <t>Ông Đinh Song Hào và bà Phan Thị Thái Lan</t>
+    <t>DO 744340</t>
   </si>
   <si>
-    <t>16/6/2004</t>
+    <t>636/23</t>
   </si>
   <si>
-    <t>Đ 608834</t>
+    <t>0912484445</t>
   </si>
   <si>
-    <t>820/24</t>
-  </si>
-  <si>
-    <t>0972554666</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -189,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,11 +206,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,9 +245,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4694,6 +4715,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="Rounded Rectangle 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rounded Rectangle 70"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5039,13 +5125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5131,69 +5217,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>84</v>
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>75</v>
       </c>
-      <c r="B2">
-        <v>349</v>
+      <c r="B2" s="7">
+        <v>269</v>
       </c>
-      <c r="C2" s="7">
-        <v>643.79999999999995</v>
+      <c r="C2" s="8">
+        <v>840</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
+        <v>300</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>540</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>100</v>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="8">
-        <v>543.79999999999995</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N2">
-        <v>677</v>
-      </c>
-      <c r="O2">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="P2">
-        <v>18.5</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2">
-        <v>156</v>
-      </c>
-      <c r="X2">
-        <v>28</v>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,25 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Lê Hữu Lân</t>
+    <t>2830,2</t>
   </si>
   <si>
-    <t>23/04/2024</t>
+    <t>Thôn Tân Vĩnh, xã Hướng Tân, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>DO 744340</t>
+    <t>Phan Thành Điển và bà Trần Thị Viếng</t>
   </si>
   <si>
-    <t>636/23</t>
+    <t>20/11/2011</t>
   </si>
   <si>
-    <t>0912484445</t>
+    <t>BD 528863</t>
   </si>
   <si>
-    <t>Đô Thị</t>
+    <t>968/24</t>
+  </si>
+  <si>
+    <t>0949469505</t>
+  </si>
+  <si>
+    <t>0,7</t>
   </si>
 </sst>
 </file>
@@ -4780,6 +4786,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="71" name="Rounded Rectangle 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rounded Rectangle 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rounded Rectangle 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rounded Rectangle 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rounded Rectangle 74"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5217,52 +5483,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7">
-        <v>269</v>
+        <v>41</v>
       </c>
-      <c r="C2" s="8">
-        <v>840</v>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>300</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>540</v>
+      <c r="I2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -5273,7 +5541,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,34 @@
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>2830,2</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Thôn Tân Vĩnh, xã Hướng Tân, huyện Hướng Hóa</t>
+    <t>Lê Thị Gái</t>
   </si>
   <si>
-    <t>Phan Thành Điển và bà Trần Thị Viếng</t>
+    <t>Xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>20/11/2011</t>
+    <t>20/05/2005</t>
   </si>
   <si>
-    <t>BD 528863</t>
+    <t>AB 595096</t>
   </si>
   <si>
-    <t>968/24</t>
+    <t>giảm 38 m2</t>
   </si>
   <si>
-    <t>0949469505</t>
+    <t>29,8</t>
   </si>
   <si>
-    <t>0,7</t>
+    <t>887/24</t>
+  </si>
+  <si>
+    <t>0985110209</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -5046,6 +5052,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="Rounded Rectangle 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rounded Rectangle 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rounded Rectangle 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5483,31 +5619,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7">
-        <v>41</v>
+        <v>222</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>276</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="8">
+        <v>145</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
-        <v>29</v>
+      <c r="I2" s="7">
+        <v>131</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>32</v>
@@ -5516,21 +5654,23 @@
         <v>33</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="P2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="R2" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -5541,7 +5681,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,19 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>3398,9</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Thôn Hòa Thành, xã Tân Hợp, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Lê Thị Gái</t>
+    <t>Hộ ông Lê Tông</t>
   </si>
   <si>
-    <t>Xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>DL 539575</t>
   </si>
   <si>
-    <t>20/05/2005</t>
-  </si>
-  <si>
-    <t>AB 595096</t>
-  </si>
-  <si>
-    <t>giảm 38 m2</t>
-  </si>
-  <si>
-    <t>29,8</t>
-  </si>
-  <si>
-    <t>887/24</t>
-  </si>
-  <si>
-    <t>0985110209</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
+    <t>667/24</t>
   </si>
 </sst>
 </file>
@@ -237,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,9 +251,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5182,6 +5161,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="77" name="Rounded Rectangle 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rounded Rectangle 77"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5621,57 +5665,45 @@
     </row>
     <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7">
-        <v>222</v>
+        <v>492</v>
       </c>
-      <c r="C2" s="8">
-        <v>276</v>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>145</v>
-      </c>
+      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>131</v>
+      <c r="I2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="10">
+        <v>45265</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -5681,7 +5713,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,19 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>3398,9</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Thôn Hòa Thành, xã Tân Hợp, huyện Hướng Hóa</t>
+    <t>0968407067</t>
   </si>
   <si>
-    <t>Hộ ông Lê Tông</t>
+    <t>Tách thửa</t>
   </si>
   <si>
-    <t>DL 539575</t>
+    <t>1267,5</t>
   </si>
   <si>
-    <t>667/24</t>
+    <t>Nguyễn Đình Thy và bà Đặng Thị Hồng</t>
+  </si>
+  <si>
+    <t>DL 427691</t>
+  </si>
+  <si>
+    <t>890/23</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,6 +260,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5226,6 +5238,461 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="78" name="Rounded Rectangle 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rounded Rectangle 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rounded Rectangle 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rounded Rectangle 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rounded Rectangle 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rounded Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rounded Rectangle 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rounded Rectangle 84"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5663,47 +6130,57 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7">
-        <v>492</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="8">
+        <v>240</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="8">
+        <v>12435</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" s="10">
-        <v>45265</v>
+        <v>45114</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7">
+        <v>30.7</v>
+      </c>
       <c r="Q2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="R2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -5713,7 +6190,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,28 +113,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Đô Thị</t>
   </si>
   <si>
-    <t>0968407067</t>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t>Hộ ông Lê Thao</t>
   </si>
   <si>
-    <t>1267,5</t>
+    <t>256,3</t>
   </si>
   <si>
-    <t>Nguyễn Đình Thy và bà Đặng Thị Hồng</t>
+    <t>903/24</t>
   </si>
   <si>
-    <t>DL 427691</t>
+    <t>0963585123</t>
   </si>
   <si>
-    <t>890/23</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
+    <t>Hợp thức hóa</t>
   </si>
 </sst>
 </file>
@@ -228,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,9 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5693,6 +5687,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="85" name="Rounded Rectangle 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Rounded Rectangle 85"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6130,56 +6189,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7">
-        <v>76</v>
+        <v>246</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>31</v>
+      <c r="C2" s="8">
+        <v>669</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>12435</v>
+        <v>369</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="10">
-        <v>45114</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7">
-        <v>30.7</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="T2" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6190,7 +6245,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,22 +116,31 @@
     <t>Đô Thị</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>984,4</t>
   </si>
   <si>
-    <t>Hộ ông Lê Thao</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>256,3</t>
+    <t>Hộ bà Phan Thị Thiềm</t>
   </si>
   <si>
-    <t>903/24</t>
+    <t>DO 958814</t>
   </si>
   <si>
-    <t>0963585123</t>
+    <t>103,5</t>
   </si>
   <si>
-    <t>Hợp thức hóa</t>
+    <t>462/23</t>
+  </si>
+  <si>
+    <t>0849557345</t>
+  </si>
+  <si>
+    <t>980/24</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
   </si>
 </sst>
 </file>
@@ -225,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,6 +266,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5752,6 +5764,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="Rounded Rectangle 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rounded Rectangle 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rounded Rectangle 87"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6189,18 +6331,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="7">
-        <v>246</v>
+        <v>193</v>
       </c>
-      <c r="C2" s="8">
-        <v>669</v>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6209,29 +6351,33 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>369</v>
+        <v>9544</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>29</v>
+      <c r="L2" s="11">
+        <v>45454</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>28</v>
@@ -6245,7 +6391,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -5943,6 +5943,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rounded Rectangle 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,34 +113,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Đô Thị</t>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>984,4</t>
+    <t>Hộ ông Lê Thao</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>256,3</t>
   </si>
   <si>
-    <t>Hộ bà Phan Thị Thiềm</t>
+    <t>903/24</t>
   </si>
   <si>
-    <t>DO 958814</t>
+    <t>0963585123</t>
   </si>
   <si>
-    <t>103,5</t>
+    <t>Hợp thức hóa</t>
   </si>
   <si>
-    <t>462/23</t>
-  </si>
-  <si>
-    <t>0849557345</t>
-  </si>
-  <si>
-    <t>980/24</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -234,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,9 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5959,6 +5947,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="89" name="Rounded Rectangle 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rounded Rectangle 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rounded Rectangle 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rounded Rectangle 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rounded Rectangle 92"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6396,18 +6644,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7">
-        <v>193</v>
+        <v>246</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>669</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6416,36 +6664,32 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>9544</v>
+        <v>369</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
+      <c r="K2" s="9" t="s">
+        <v>28</v>
       </c>
-      <c r="L2" s="11">
-        <v>45454</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="T2" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6456,7 +6700,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,25 +113,22 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>19</t>
   </si>
   <si>
-    <t>Hộ ông Lê Thao</t>
+    <t>Thôn Proi Xy, xã A Dơi, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>256,3</t>
+    <t>Hồ Văn Đờn</t>
   </si>
   <si>
-    <t>903/24</t>
+    <t>DL 434329</t>
   </si>
   <si>
-    <t>0963585123</t>
+    <t>0,5</t>
   </si>
   <si>
-    <t>Hợp thức hóa</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
+    <t>821/24</t>
   </si>
 </sst>
 </file>
@@ -254,8 +251,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6207,6 +6204,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="93" name="Rounded Rectangle 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rounded Rectangle 93"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6644,52 +6706,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>73</v>
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="7">
-        <v>246</v>
+        <v>484</v>
       </c>
       <c r="C2" s="8">
-        <v>669</v>
+        <v>2843</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>2843</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>369</v>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>28</v>
+      <c r="L2" s="10">
+        <v>45070</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6700,7 +6756,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,22 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>19</t>
+    <t>Thôn Quyết Tâm, xã Tân Hợp, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Thôn Proi Xy, xã A Dơi, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Phan Văn Thọ</t>
   </si>
   <si>
-    <t>Hồ Văn Đờn</t>
+    <t>Trích lục</t>
   </si>
   <si>
-    <t>DL 434329</t>
+    <t>0914090588</t>
   </si>
   <si>
-    <t>0,5</t>
+    <t>1229/24</t>
   </si>
   <si>
-    <t>821/24</t>
+    <t>1230/24</t>
+  </si>
+  <si>
+    <t>466,1</t>
+  </si>
+  <si>
+    <t>27/02/2019</t>
+  </si>
+  <si>
+    <t>CM 549606</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,6 +263,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6269,6 +6281,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="94" name="Rounded Rectangle 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rounded Rectangle 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rounded Rectangle 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rounded Rectangle 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rounded Rectangle 97"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6706,47 +6978,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>12</v>
       </c>
       <c r="B2" s="7">
-        <v>484</v>
+        <v>527</v>
       </c>
-      <c r="C2" s="8">
-        <v>2843</v>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>2843</v>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>34</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="L2" s="10">
-        <v>45070</v>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Thôn Quyết Tâm, xã Tân Hợp, huyện Hướng Hóa</t>
+    <t>2830,2</t>
   </si>
   <si>
-    <t>Phan Văn Thọ</t>
+    <t>Thôn Tân Vĩnh, xã Hướng Tân, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Trích lục</t>
+    <t>Phan Thành Điển và bà Trần Thị Viếng</t>
   </si>
   <si>
-    <t>0914090588</t>
+    <t>20/11/2011</t>
   </si>
   <si>
-    <t>1229/24</t>
+    <t>BD 528863</t>
   </si>
   <si>
-    <t>1230/24</t>
+    <t>968/24</t>
   </si>
   <si>
-    <t>466,1</t>
+    <t>0949469505</t>
   </si>
   <si>
-    <t>27/02/2019</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>CM 549606</t>
+    <t>0,7</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,19 +252,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6541,6 +6538,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="98" name="Rounded Rectangle 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rounded Rectangle 98"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6980,49 +7042,53 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7">
-        <v>527</v>
+        <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>34</v>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>2830,2</t>
-  </si>
-  <si>
-    <t>Thôn Tân Vĩnh, xã Hướng Tân, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Phan Thành Điển và bà Trần Thị Viếng</t>
-  </si>
-  <si>
-    <t>20/11/2011</t>
-  </si>
-  <si>
-    <t>BD 528863</t>
-  </si>
-  <si>
-    <t>968/24</t>
-  </si>
-  <si>
-    <t>0949469505</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>0,7</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>Hộ ông Nguyễn Hà</t>
+  </si>
+  <si>
+    <t>27/12/2001</t>
+  </si>
+  <si>
+    <t>U 577206</t>
+  </si>
+  <si>
+    <t>tăng 61,3</t>
+  </si>
+  <si>
+    <t>882/24</t>
+  </si>
+  <si>
+    <t>0979559927</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -6608,6 +6608,136 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Rounded Rectangle 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rounded Rectangle 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
           <a:ext cx="581025" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7042,23 +7172,25 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7">
-        <v>41</v>
+        <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
+      <c r="C2" s="7">
+        <v>5632.3</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7">
+        <v>300</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
+      <c r="I2" s="7">
+        <v>5332.3</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>30</v>
@@ -7072,19 +7204,23 @@
       <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7">
-        <v>40.799999999999997</v>
+      <c r="N2" s="7">
+        <v>5571</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="7">
+        <v>173.3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="R2" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>36</v>
@@ -7093,12 +7229,14 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>300</v>
+      </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,25 @@
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Đô Thị</t>
   </si>
   <si>
-    <t>Hộ ông Nguyễn Hà</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>27/12/2001</t>
+    <t>Hộ ông Lư Quang Hùng</t>
   </si>
   <si>
-    <t>U 577206</t>
+    <t>29/06/2004</t>
   </si>
   <si>
-    <t>tăng 61,3</t>
+    <t>Đ 604446</t>
   </si>
   <si>
-    <t>882/24</t>
+    <t/>
   </si>
   <si>
-    <t>0979559927</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
+    <t>780/24</t>
   </si>
 </sst>
 </file>
@@ -231,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,16 +249,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6733,6 +6733,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="101" name="Rounded Rectangle 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Rounded Rectangle 101"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7170,73 +7235,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7">
-        <v>47</v>
+        <v>64</v>
       </c>
-      <c r="C2" s="7">
-        <v>5632.3</v>
+      <c r="C2" s="8">
+        <v>1519</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>300</v>
+      <c r="G2" s="8">
+        <v>200</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>5332.3</v>
+      <c r="I2" s="8">
+        <v>1319</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>31</v>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="7">
-        <v>5571</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="7">
-        <v>173.3</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7">
-        <v>300</v>
-      </c>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -113,28 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
     <t>Đô Thị</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>60</t>
   </si>
   <si>
-    <t>Hộ ông Lư Quang Hùng</t>
+    <t>950,6</t>
   </si>
   <si>
-    <t>29/06/2004</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Đ 604446</t>
+    <t>700,6</t>
   </si>
   <si>
-    <t/>
+    <t>Bà Dương Thị Loan và ông Ngô Ngọc Quý</t>
   </si>
   <si>
-    <t>780/24</t>
+    <t>BL 832370</t>
+  </si>
+  <si>
+    <t>1409/23</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,9 +260,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6798,6 +6795,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="102" name="Rounded Rectangle 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Rounded Rectangle 102"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7235,52 +7297,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>84</v>
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="7">
-        <v>64</v>
+        <v>7</v>
       </c>
-      <c r="C2" s="8">
-        <v>1519</v>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>1319</v>
+      <c r="I2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>32</v>
+      <c r="L2" s="10">
+        <v>41359</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,22 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>19</t>
+    <t>Đô Thị</t>
   </si>
   <si>
-    <t>Thôn Proi Xy, xã A Dơi, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>60</t>
   </si>
   <si>
-    <t>Hồ Văn Đờn</t>
+    <t>950,6</t>
   </si>
   <si>
-    <t>DL 434329</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>0,5</t>
+    <t>700,6</t>
   </si>
   <si>
-    <t>821/24</t>
+    <t>Bà Dương Thị Loan và ông Ngô Ngọc Quý</t>
+  </si>
+  <si>
+    <t>BL 832370</t>
+  </si>
+  <si>
+    <t>1409/23</t>
   </si>
 </sst>
 </file>
@@ -6274,6 +6280,591 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rounded Rectangle 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rounded Rectangle 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rounded Rectangle 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rounded Rectangle 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rounded Rectangle 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="114300"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Rounded Rectangle 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rounded Rectangle 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Rounded Rectangle 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Rounded Rectangle 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
           <a:ext cx="581025" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6706,37 +7297,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7">
-        <v>484</v>
+        <v>7</v>
       </c>
-      <c r="C2" s="8">
-        <v>2843</v>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>2843</v>
+        <v>250</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="10">
-        <v>45070</v>
+        <v>41359</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -6745,7 +7338,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -6756,7 +7349,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,28 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Đô Thị</t>
+    <t>Thôn Proi Xy, xã A Dơi, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>60</t>
+    <t>Hồ Văn Đờn</t>
   </si>
   <si>
-    <t>950,6</t>
+    <t>24/05/2023</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>DL 434329</t>
   </si>
   <si>
-    <t>700,6</t>
+    <t>821/24</t>
   </si>
   <si>
-    <t>Bà Dương Thị Loan và ông Ngô Ngọc Quý</t>
+    <t>0982771169</t>
   </si>
   <si>
-    <t>BL 832370</t>
+    <t>Tách thửa</t>
   </si>
   <si>
-    <t>1409/23</t>
+    <t>0,5</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,6 +260,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6860,6 +6863,201 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="103" name="Rounded Rectangle 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Rounded Rectangle 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rounded Rectangle 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Rounded Rectangle 105"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7297,48 +7495,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>19</v>
       </c>
       <c r="B2" s="7">
-        <v>7</v>
+        <v>484</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>30</v>
+      <c r="C2" s="8">
+        <v>2843</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>250</v>
+        <v>2843</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
-        <v>32</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
-      <c r="L2" s="10">
-        <v>41359</v>
+      <c r="L2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="T2" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -7349,7 +7553,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,28 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Thôn Proi Xy, xã A Dơi, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Hồ Văn Đờn</t>
+    <t>Hộ ông Lư Quang Hùng</t>
   </si>
   <si>
-    <t>24/05/2023</t>
+    <t>29/06/2004</t>
   </si>
   <si>
-    <t>DL 434329</t>
+    <t>Đ 604446</t>
   </si>
   <si>
-    <t>821/24</t>
+    <t>giảm 93</t>
   </si>
   <si>
-    <t>0982771169</t>
+    <t>1280/24</t>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t>0986105305</t>
   </si>
   <si>
-    <t>0,5</t>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
+  </si>
+  <si>
+    <t>780/24</t>
   </si>
 </sst>
 </file>
@@ -7058,6 +7064,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="106" name="Rounded Rectangle 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Rounded Rectangle 106"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7497,13 +7568,13 @@
     </row>
     <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="C2" s="8">
-        <v>2843</v>
+        <v>1519</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>28</v>
@@ -7511,11 +7582,11 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>2843</v>
+        <v>200</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="8">
+        <v>1319</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>29</v>
@@ -7530,19 +7601,23 @@
         <v>31</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="7">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
+      <c r="S2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="T2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -7553,7 +7628,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,34 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Hộ ông Lư Quang Hùng</t>
-  </si>
-  <si>
-    <t>29/06/2004</t>
-  </si>
-  <si>
-    <t>Đ 604446</t>
-  </si>
-  <si>
-    <t>giảm 93</t>
-  </si>
-  <si>
-    <t>1280/24</t>
-  </si>
-  <si>
-    <t>0986105305</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
     <t>Đô Thị</t>
   </si>
   <si>
-    <t>780/24</t>
+    <t>992,6</t>
+  </si>
+  <si>
+    <t>Khóm Tân Kim, thị trấn Lao Bảo, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Hộ ông Trương Thê Tiến và bà Nguyễn Thị Thơm</t>
+  </si>
+  <si>
+    <t>Khóm Trung Chín, thị trấn Lao Bảo, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>BI 208003</t>
+  </si>
+  <si>
+    <t>660/24</t>
+  </si>
+  <si>
+    <t>0935166234</t>
   </si>
 </sst>
 </file>
@@ -7129,6 +7123,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="107" name="Rounded Rectangle 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Rounded Rectangle 107"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7566,58 +7625,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7">
-        <v>64</v>
+        <v>37</v>
       </c>
-      <c r="C2" s="8">
-        <v>1519</v>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>200</v>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>1319</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
+      <c r="L2" s="10">
+        <v>40889</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="7">
-        <v>161</v>
-      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="S2" s="7"/>
       <c r="T2" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -7628,7 +7681,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,25 +116,34 @@
     <t>Đô Thị</t>
   </si>
   <si>
-    <t>992,6</t>
+    <t>950,6</t>
   </si>
   <si>
-    <t>Khóm Tân Kim, thị trấn Lao Bảo, huyện Hướng Hóa</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Hộ ông Trương Thê Tiến và bà Nguyễn Thị Thơm</t>
+    <t>Bà Dương Thị Loan và ông Ngô Ngọc Quý</t>
   </si>
   <si>
-    <t>Khóm Trung Chín, thị trấn Lao Bảo, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>26/03/2013</t>
   </si>
   <si>
-    <t>BI 208003</t>
+    <t>BL 832370</t>
   </si>
   <si>
-    <t>660/24</t>
+    <t>giảm 3,3</t>
   </si>
   <si>
-    <t>0935166234</t>
+    <t>1279/24</t>
+  </si>
+  <si>
+    <t>0973295409</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>1409/23</t>
   </si>
 </sst>
 </file>
@@ -7188,6 +7197,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="108" name="Rounded Rectangle 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rounded Rectangle 108"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7625,12 +7699,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>29</v>
@@ -7640,48 +7714,58 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
+      <c r="G2" s="8">
+        <v>250</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="8">
+        <v>9256</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="10">
-        <v>40889</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="7">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="R2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="T2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="7">
+        <v>50</v>
+      </c>
+      <c r="X2" s="7">
+        <v>7</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Đô Thị</t>
+    <t>Thôn Hòa Thành, xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>950,6</t>
+    <t>Hộ ông Lê Tông</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>DL 539575</t>
   </si>
   <si>
-    <t>Bà Dương Thị Loan và ông Ngô Ngọc Quý</t>
+    <t>667/24</t>
   </si>
   <si>
-    <t>26/03/2013</t>
+    <t>giảm 0,1</t>
   </si>
   <si>
-    <t>BL 832370</t>
+    <t>13,0</t>
   </si>
   <si>
-    <t>giảm 3,3</t>
+    <t>1313/24</t>
   </si>
   <si>
-    <t>1279/24</t>
+    <t>0988010604</t>
   </si>
   <si>
-    <t>0973295409</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>1409/23</t>
+    <t>Tách thửa, Chuyển mục đích</t>
   </si>
 </sst>
 </file>
@@ -7262,6 +7256,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="109" name="Rounded Rectangle 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Rounded Rectangle 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rounded Rectangle 110"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7701,71 +7825,63 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>3523</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>250</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>9256</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>32</v>
+      <c r="L2" s="10">
+        <v>45058</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="7">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7">
-        <v>50</v>
-      </c>
-      <c r="X2" s="7">
-        <v>7</v>
-      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -113,31 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Thôn Hòa Thành, xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Hộ ông Lê Tông</t>
+    <t>Hộ ông Trương Văn Anh</t>
   </si>
   <si>
-    <t>DL 539575</t>
+    <t>Đ 604060</t>
   </si>
   <si>
-    <t>667/24</t>
+    <t>Giảm 29 m2</t>
   </si>
   <si>
-    <t>giảm 0,1</t>
+    <t>139,8</t>
   </si>
   <si>
-    <t>13,0</t>
+    <t>1329/24</t>
   </si>
   <si>
-    <t>1313/24</t>
+    <t>0387413613</t>
   </si>
   <si>
-    <t>0988010604</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Tách thửa, Chuyển mục đích</t>
+    <t>902/24</t>
   </si>
 </sst>
 </file>
@@ -7386,6 +7386,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="111" name="Rounded Rectangle 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Rounded Rectangle 111"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7825,23 +7890,25 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="C2" s="8">
-        <v>3523</v>
+        <v>1686</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8">
+        <v>220</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7">
-        <v>0</v>
+        <v>1466</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>29</v>
@@ -7850,38 +7917,40 @@
         <v>28</v>
       </c>
       <c r="L2" s="10">
-        <v>45058</v>
+        <v>38302</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>220</v>
+      </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>Hộ ông Trương Văn Anh</t>
-  </si>
-  <si>
-    <t>Đ 604060</t>
-  </si>
-  <si>
-    <t>Giảm 29 m2</t>
-  </si>
-  <si>
-    <t>139,8</t>
-  </si>
-  <si>
-    <t>1329/24</t>
-  </si>
-  <si>
-    <t>0387413613</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>902/24</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>Hộ ông Hồ Đăng Đoan</t>
+  </si>
+  <si>
+    <t>27/12/2001</t>
+  </si>
+  <si>
+    <t>U 577197</t>
+  </si>
+  <si>
+    <t>giảm 18,6</t>
+  </si>
+  <si>
+    <t>41,6</t>
+  </si>
+  <si>
+    <t>1333/24</t>
+  </si>
+  <si>
+    <t>0979559927</t>
   </si>
 </sst>
 </file>
@@ -7451,6 +7451,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="112" name="Rounded Rectangle 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rounded Rectangle 112"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7890,67 +7955,67 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8">
-        <v>1686</v>
+        <v>8701</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>220</v>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>1466</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="10">
-        <v>38302</v>
+      <c r="L2" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="7">
+        <v>26</v>
+      </c>
+      <c r="X2" s="7">
+        <v>5</v>
+      </c>
       <c r="Y2" s="7">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -113,31 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
     <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Hộ ông Hồ Đăng Đoan</t>
+    <t>Hộ ông Nguyễn Hà</t>
   </si>
   <si>
     <t>27/12/2001</t>
   </si>
   <si>
-    <t>U 577197</t>
+    <t>U 577206</t>
   </si>
   <si>
-    <t>giảm 18,6</t>
+    <t>tăng 61,3</t>
   </si>
   <si>
-    <t>41,6</t>
-  </si>
-  <si>
-    <t>1333/24</t>
+    <t>882/24</t>
   </si>
   <si>
     <t>0979559927</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,19 +252,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7516,6 +7513,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="113" name="Rounded Rectangle 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Rounded Rectangle 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Rounded Rectangle 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Rounded Rectangle 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Rounded Rectangle 116"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7955,59 +8212,63 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7">
-        <v>25</v>
+        <v>47</v>
       </c>
-      <c r="C2" s="8">
-        <v>8701</v>
+      <c r="C2" s="7">
+        <v>5632.3</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7">
+        <v>300</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7">
+        <v>5332.3</v>
+      </c>
       <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7">
+        <v>5571</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7">
+        <v>173.3</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7">
-        <v>26</v>
-      </c>
-      <c r="X2" s="7">
-        <v>5</v>
-      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7">
         <v>300</v>
       </c>
@@ -8015,7 +8276,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>Hộ ông Nguyễn Hà</t>
-  </si>
-  <si>
-    <t>27/12/2001</t>
-  </si>
-  <si>
-    <t>U 577206</t>
-  </si>
-  <si>
-    <t>tăng 61,3</t>
-  </si>
-  <si>
-    <t>882/24</t>
-  </si>
-  <si>
-    <t>0979559927</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Đô Thị</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>Hộ ông Trương Văn Anh</t>
+  </si>
+  <si>
+    <t>Đ 604060</t>
+  </si>
+  <si>
+    <t>Giảm 29 m2</t>
+  </si>
+  <si>
+    <t>139,8</t>
+  </si>
+  <si>
+    <t>1329/24</t>
+  </si>
+  <si>
+    <t>0387413613</t>
+  </si>
+  <si>
+    <t>902/24</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -252,16 +252,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7773,6 +7776,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="117" name="Rounded Rectangle 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="Rounded Rectangle 117"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8212,71 +8280,71 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B2" s="7">
-        <v>47</v>
+        <v>77</v>
       </c>
-      <c r="C2" s="7">
-        <v>5632.3</v>
+      <c r="C2" s="8">
+        <v>1686</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>28</v>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>300</v>
+      <c r="G2" s="8">
+        <v>220</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7">
-        <v>5332.3</v>
+        <v>1466</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>30</v>
+      <c r="L2" s="10">
+        <v>38302</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7">
-        <v>5571</v>
-      </c>
+      <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7">
-        <v>173.3</v>
+      <c r="P2" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>36</v>
+      <c r="S2" s="7" t="s">
+        <v>28</v>
       </c>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="7">
+        <v>149</v>
+      </c>
+      <c r="X2" s="7">
+        <v>13</v>
+      </c>
       <c r="Y2" s="7">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,31 @@
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Hộ ông Trương Văn Anh</t>
+    <t>ODT</t>
   </si>
   <si>
-    <t>Đ 604060</t>
+    <t>CLN</t>
   </si>
   <si>
-    <t>Giảm 29 m2</t>
+    <t>Hộ bà Đinh Thị Thơi</t>
   </si>
   <si>
-    <t>139,8</t>
+    <t>27/12/2021</t>
   </si>
   <si>
-    <t>1329/24</t>
+    <t>U 577726</t>
   </si>
   <si>
-    <t>0387413613</t>
+    <t>giảm 35,4</t>
   </si>
   <si>
-    <t>902/24</t>
+    <t>146,2</t>
+  </si>
+  <si>
+    <t>0917565111</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,26 +215,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,20 +239,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7841,6 +7826,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="118" name="Rounded Rectangle 117"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Rounded Rectangle 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Rounded Rectangle 119"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8192,7 +8307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8278,52 +8393,58 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8">
-        <v>1686</v>
+        <v>1215.5999999999999</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>220</v>
+      <c r="E2" s="7">
+        <v>1</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>1466</v>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>300</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="9">
+        <v>915.59999999999991</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="10">
-        <v>38302</v>
+      <c r="L2" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="7">
+        <v>1251</v>
+      </c>
       <c r="O2" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>35</v>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>28</v>
@@ -8331,21 +8452,13 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7">
-        <v>149</v>
-      </c>
-      <c r="X2" s="7">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>220</v>
-      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,34 @@
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Khối 3A, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>950,6</t>
   </si>
   <si>
-    <t>ODT</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>CLN</t>
+    <t>Bà Dương Thị Loan và ông Ngô Ngọc Quý</t>
   </si>
   <si>
-    <t>Hộ bà Đinh Thị Thơi</t>
+    <t>26/03/2013</t>
   </si>
   <si>
-    <t>27/12/2021</t>
+    <t>BL 832370</t>
   </si>
   <si>
-    <t>U 577726</t>
+    <t>giảm 3,3</t>
   </si>
   <si>
-    <t>giảm 35,4</t>
+    <t>1279/24</t>
   </si>
   <si>
-    <t>146,2</t>
+    <t>0973295409</t>
   </si>
   <si>
-    <t>0917565111</t>
+    <t>Đô Thị</t>
+  </si>
+  <si>
+    <t>1409/23</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,11 +218,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,17 +257,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7956,6 +7977,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="120" name="Rounded Rectangle 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Rounded Rectangle 120"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8307,7 +8393,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8393,72 +8479,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
-      <c r="C2" s="8">
-        <v>1215.5999999999999</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="9">
-        <v>300</v>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
+        <v>250</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>9256</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="9">
-        <v>915.59999999999991</v>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="7">
-        <v>1251</v>
+      <c r="P2" s="7">
+        <v>141</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="7">
+        <v>50</v>
+      </c>
+      <c r="X2" s="7">
+        <v>7</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Thôn Hòa Thành, xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>950,6</t>
+    <t>Hộ ông Lê Tông</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>DL 539575</t>
   </si>
   <si>
-    <t>Bà Dương Thị Loan và ông Ngô Ngọc Quý</t>
+    <t>giảm 0,1</t>
   </si>
   <si>
-    <t>26/03/2013</t>
+    <t>13,0</t>
   </si>
   <si>
-    <t>BL 832370</t>
+    <t>1313/24</t>
   </si>
   <si>
-    <t>giảm 3,3</t>
+    <t>0988010604</t>
   </si>
   <si>
-    <t>1279/24</t>
+    <t>Tách thửa, Chuyển mục đích</t>
   </si>
   <si>
-    <t>0973295409</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
-  </si>
-  <si>
-    <t>1409/23</t>
+    <t>667/24</t>
   </si>
 </sst>
 </file>
@@ -266,11 +260,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8042,6 +8036,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="121" name="Rounded Rectangle 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="Rounded Rectangle 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Rounded Rectangle 122"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8481,71 +8605,63 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>3523</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>250</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>9256</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>32</v>
+      <c r="L2" s="11">
+        <v>45058</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="7">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7">
-        <v>50</v>
-      </c>
-      <c r="X2" s="7">
-        <v>7</v>
-      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Thôn Hòa Thành, xã Tân Hợp, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>Hộ ông Lê Tông</t>
-  </si>
-  <si>
-    <t>DL 539575</t>
-  </si>
-  <si>
     <t>giảm 0,1</t>
   </si>
   <si>
-    <t>13,0</t>
+    <t>159,6</t>
   </si>
   <si>
-    <t>1313/24</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>0988010604</t>
+    <t>Trần Thị Bình</t>
   </si>
   <si>
-    <t>Tách thửa, Chuyển mục đích</t>
+    <t>18/06/2004</t>
   </si>
   <si>
-    <t>667/24</t>
+    <t>Đ 608906</t>
+  </si>
+  <si>
+    <t>1399/23</t>
+  </si>
+  <si>
+    <t>0348030750</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -8166,6 +8169,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="123" name="Rounded Rectangle 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Rounded Rectangle 123"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8603,55 +8671,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7">
-        <v>15</v>
+        <v>47</v>
       </c>
-      <c r="C2" s="8">
-        <v>3523</v>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
+        <v>138</v>
+      </c>
+      <c r="G2" s="8">
+        <v>138</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>1458</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7">
+        <v>139</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11">
-        <v>45058</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>32</v>
+      <c r="P2" s="7">
+        <v>7</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -8661,7 +8737,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,34 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>giảm 0,1</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>159,6</t>
+    <t>Lê Dũng và bà Nguyễn Thị Nga</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>27/12/2001</t>
   </si>
   <si>
-    <t>Trần Thị Bình</t>
+    <t>U 577032</t>
   </si>
   <si>
-    <t>18/06/2004</t>
+    <t>tăng 8,6</t>
   </si>
   <si>
-    <t>Đ 608906</t>
+    <t>518,3</t>
   </si>
   <si>
-    <t>1399/23</t>
+    <t>1134/24</t>
   </si>
   <si>
-    <t>0348030750</t>
+    <t>0987948150</t>
   </si>
   <si>
     <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -8234,6 +8231,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="124" name="Rounded Rectangle 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rounded Rectangle 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rounded Rectangle 125"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8671,50 +8798,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B2" s="7">
-        <v>47</v>
+        <v>80</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>3197</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7">
-        <v>138</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>1458</v>
+        <v>2897</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" s="7">
-        <v>139</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="7">
-        <v>7</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>34</v>
@@ -8725,13 +8848,15 @@
       <c r="S2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="7">
+        <v>69</v>
+      </c>
+      <c r="X2" s="7">
+        <v>16</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -8410,6 +8410,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rounded Rectangle 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Lê Dũng và bà Nguyễn Thị Nga</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>27/12/2001</t>
+    <t>CLN</t>
   </si>
   <si>
-    <t>U 577032</t>
+    <t>Trần Văn Đông</t>
   </si>
   <si>
-    <t>tăng 8,6</t>
+    <t>25/7/2012</t>
   </si>
   <si>
-    <t>518,3</t>
+    <t>BL 851027</t>
   </si>
   <si>
-    <t>1134/24</t>
+    <t>461/24</t>
   </si>
   <si>
-    <t>0987948150</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
+    <t>0965257278</t>
   </si>
 </sst>
 </file>
@@ -189,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,26 +209,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,20 +233,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8426,6 +8405,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="127" name="Rounded Rectangle 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rounded Rectangle 127"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8777,7 +8821,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8863,46 +8907,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C2" s="8">
-        <v>3197</v>
+        <v>11958.1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>28</v>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>300</v>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>2897</v>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>30</v>
+      <c r="L2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>32</v>
+      <c r="N2" s="7">
+        <v>10330</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>33</v>
+      <c r="O2" s="7">
+        <v>-1628.1</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2401.5</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>34</v>
@@ -8911,24 +8955,22 @@
         <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="X2" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Lê Dũng và bà Nguyễn Thị Nga</t>
+    <t>159,6</t>
   </si>
   <si>
-    <t>27/12/2001</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>U 577032</t>
+    <t>Trần Thị Bình</t>
   </si>
   <si>
-    <t>tăng 8,6</t>
+    <t>18/06/2004</t>
   </si>
   <si>
-    <t>518,3</t>
+    <t>Đ 608906</t>
   </si>
   <si>
-    <t>1134/24</t>
+    <t>giảm 0,1</t>
   </si>
   <si>
-    <t>0987948150</t>
+    <t>1399/23</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>0348030750</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
   </si>
 </sst>
 </file>
@@ -8426,6 +8429,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="127" name="Rounded Rectangle 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rounded Rectangle 127"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8863,71 +8931,73 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7">
-        <v>80</v>
+        <v>47</v>
       </c>
-      <c r="C2" s="8">
-        <v>3197</v>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7">
+        <v>138</v>
+      </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>2897</v>
+        <v>1458</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7">
+        <v>139</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>30</v>
+      <c r="T2" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7">
-        <v>69</v>
-      </c>
-      <c r="X2" s="7">
-        <v>16</v>
-      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,22 @@
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>159,6</t>
+    <t>Khóm Xuân Phước, thị trấn Lao Bảo, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Hộ ông Trần Thiện Thiêm và bà Trương Thị Vân</t>
   </si>
   <si>
-    <t>Trần Thị Bình</t>
+    <t>BI 149917</t>
   </si>
   <si>
-    <t>18/06/2004</t>
+    <t>Giảm 38,7</t>
   </si>
   <si>
-    <t>Đ 608906</t>
+    <t>0366030566</t>
   </si>
   <si>
-    <t>giảm 0,1</t>
-  </si>
-  <si>
-    <t>1399/23</t>
-  </si>
-  <si>
-    <t>0348030750</t>
-  </si>
-  <si>
-    <t>Đô Thị</t>
+    <t>860/24</t>
   </si>
 </sst>
 </file>
@@ -8494,6 +8485,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="128" name="Rounded Rectangle 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Rounded Rectangle 128"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8931,63 +8987,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7">
-        <v>47</v>
+        <v>80</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="8">
+        <v>219</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
+        <v>219</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7">
-        <v>138</v>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>138</v>
+      <c r="L2" s="11">
+        <v>40888</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>1458</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="7">
-        <v>139</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>35</v>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7">
+        <v>860</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -8997,7 +9045,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -8599,6 +8599,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Rounded Rectangle 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,25 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Khóm Xuân Phước, thị trấn Lao Bảo, huyện Hướng Hóa</t>
+    <t>31/01/2023</t>
   </si>
   <si>
-    <t>Hộ ông Trần Thiện Thiêm và bà Trương Thị Vân</t>
+    <t>DI 024300</t>
   </si>
   <si>
-    <t>BI 149917</t>
+    <t>1318/24</t>
   </si>
   <si>
-    <t>Giảm 38,7</t>
+    <t>0932320777</t>
   </si>
   <si>
-    <t>0366030566</t>
+    <t>Tách thửa</t>
   </si>
   <si>
-    <t>860/24</t>
+    <t>Trần Thị Huyền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Lập </t>
+  </si>
+  <si>
+    <t>045059000775</t>
+  </si>
+  <si>
+    <t>046161000319</t>
   </si>
 </sst>
 </file>
@@ -8615,6 +8624,331 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="130" name="Rounded Rectangle 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Rounded Rectangle 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Rounded Rectangle 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="Rounded Rectangle 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rounded Rectangle 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Rounded Rectangle 134"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9052,57 +9386,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C2" s="8">
-        <v>219</v>
+        <v>1199</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="8">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="8">
+        <v>949</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="11">
-        <v>40888</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7">
-        <v>860</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>28</v>
+      <c r="T2" s="10" t="s">
+        <v>36</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -9110,7 +9448,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,34 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>DI 024300</t>
-  </si>
-  <si>
-    <t>1318/24</t>
-  </si>
-  <si>
-    <t>0932320777</t>
-  </si>
-  <si>
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>Trần Thị Huyền</t>
+    <t>Thôn Bích La Trung, xã Tân Thành, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Lập </t>
+    <t>Bùi Xuân Đào</t>
   </si>
   <si>
-    <t>045059000775</t>
+    <t>26/7/2024</t>
   </si>
   <si>
-    <t>046161000319</t>
+    <t>DO 772299</t>
+  </si>
+  <si>
+    <t>1365/24</t>
+  </si>
+  <si>
+    <t>0985449359</t>
+  </si>
+  <si>
+    <t>045062004171</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phượng</t>
+  </si>
+  <si>
+    <t>051167013170</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,26 +215,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,21 +239,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8949,6 +8922,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="135" name="Rounded Rectangle 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rounded Rectangle 135"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9294,13 +9332,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9386,69 +9424,57 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>84</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
       </c>
-      <c r="B2" s="7">
-        <v>114</v>
+      <c r="B2">
+        <v>199</v>
       </c>
-      <c r="C2" s="8">
-        <v>1199</v>
+      <c r="C2" s="7">
+        <v>272.7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>272.7</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>250</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>949</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="T2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,28 @@
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>Thôn Bích La Trung, xã Tân Thành, huyện Hướng Hóa</t>
+    <t>Thôn Nại Cửu, xã Tân Thành, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Bùi Xuân Đào</t>
+    <t>Hồ Thị Tú</t>
   </si>
   <si>
-    <t>26/7/2024</t>
+    <t>thị trấn Lao Bảo, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>DO 772299</t>
+    <t>CQ 165300</t>
   </si>
   <si>
-    <t>1365/24</t>
+    <t>1521/24</t>
   </si>
   <si>
-    <t>0985449359</t>
+    <t>0947304078</t>
   </si>
   <si>
-    <t>045062004171</t>
+    <t>04517800633</t>
   </si>
   <si>
-    <t>Nguyễn Thị Phượng</t>
-  </si>
-  <si>
-    <t>051167013170</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -219,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,6 +239,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8987,6 +8985,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="136" name="Rounded Rectangle 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Rounded Rectangle 136"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9426,34 +9489,34 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7">
-        <v>272.7</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="G2" s="8">
+        <v>127</v>
       </c>
-      <c r="G2" s="8">
-        <v>272.7</v>
+      <c r="H2">
+        <v>603</v>
       </c>
       <c r="I2" s="8">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
+      <c r="L2" s="10">
+        <v>43504</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
@@ -9470,11 +9533,8 @@
       <c r="T2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,25 @@
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>Thôn Nại Cửu, xã Tân Thành, huyện Hướng Hóa</t>
+    <t/>
   </si>
   <si>
-    <t>Hồ Thị Tú</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>thị trấn Lao Bảo, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Ông Nguyễn Lâp và bà Trần Thị Huyền</t>
   </si>
   <si>
-    <t>CQ 165300</t>
+    <t>31/01/2023</t>
   </si>
   <si>
-    <t>1521/24</t>
+    <t>DI 024300</t>
   </si>
   <si>
-    <t>0947304078</t>
+    <t>1318/24</t>
   </si>
   <si>
-    <t>04517800633</t>
-  </si>
-  <si>
-    <t/>
+    <t>0932320777</t>
   </si>
 </sst>
 </file>
@@ -189,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,11 +209,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,10 +248,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9050,6 +9073,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="137" name="Rounded Rectangle 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rounded Rectangle 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Rounded Rectangle 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rounded Rectangle 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Rounded Rectangle 140"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9395,13 +9678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9487,54 +9770,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>13</v>
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>84</v>
       </c>
-      <c r="B2">
-        <v>68</v>
+      <c r="B2" s="7">
+        <v>114</v>
       </c>
-      <c r="C2" s="7">
-        <v>730</v>
+      <c r="C2" s="8">
+        <v>1199</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
+        <v>250</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>949</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="P2" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>127</v>
+      <c r="U2" s="7"/>
+      <c r="V2" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="H2">
-        <v>603</v>
-      </c>
-      <c r="I2" s="8">
-        <v>603</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="10">
-        <v>43504</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,28 +113,40 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
+    <t>ODT</t>
+  </si>
+  <si>
+    <t>CLN</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sỹ</t>
+  </si>
+  <si>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>20/5/2024</t>
+  </si>
+  <si>
+    <t>DO 914309</t>
+  </si>
+  <si>
+    <t>1441/24</t>
+  </si>
+  <si>
+    <t>Tách thửa và hợp thửa</t>
+  </si>
+  <si>
     <t>Tách thửa</t>
   </si>
   <si>
-    <t/>
+    <t>044064007090</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Lê Thị Thẩm</t>
   </si>
   <si>
-    <t>Ông Nguyễn Lâp và bà Trần Thị Huyền</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>DI 024300</t>
-  </si>
-  <si>
-    <t>1318/24</t>
-  </si>
-  <si>
-    <t>0932320777</t>
+    <t>045173005893</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,26 +221,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,20 +245,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9333,6 +9327,461 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="141" name="Rounded Rectangle 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rounded Rectangle 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="Rounded Rectangle 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Rounded Rectangle 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rounded Rectangle 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Rounded Rectangle 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Rounded Rectangle 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="Rounded Rectangle 147"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9684,7 +10133,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9770,62 +10219,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>84</v>
       </c>
       <c r="B2" s="7">
-        <v>114</v>
+        <v>416</v>
       </c>
-      <c r="C2" s="8">
-        <v>1199</v>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7">
+        <v>250</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="7">
+        <v>682.8</v>
+      </c>
+      <c r="I2" s="9">
+        <v>629.9</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>250</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>949</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="P2" s="7">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
+      <c r="Q2" s="7">
+        <v>943392499</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>29</v>
+      <c r="T2" s="10" t="s">
+        <v>37</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="11" t="s">
-        <v>29</v>
+      <c r="U2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -9833,9 +10286,7 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,34 +119,37 @@
     <t>CLN</t>
   </si>
   <si>
-    <t>Nguyễn Văn Sỹ</t>
+    <t>205,9</t>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>20/5/2024</t>
+    <t>Hồ Thị Lan Phụng</t>
   </si>
   <si>
-    <t>DO 914309</t>
+    <t>21/8/2024</t>
   </si>
   <si>
-    <t>1441/24</t>
+    <t>DO 772970</t>
   </si>
   <si>
-    <t>Tách thửa và hợp thửa</t>
+    <t>1627/24</t>
+  </si>
+  <si>
+    <t>0942792390</t>
   </si>
   <si>
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>044064007090</t>
+    <t>019178007613</t>
   </si>
   <si>
-    <t>Lê Thị Thẩm</t>
+    <t/>
   </si>
   <si>
-    <t>045173005893</t>
+    <t>105,9</t>
   </si>
 </sst>
 </file>
@@ -9782,6 +9785,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="148" name="Rounded Rectangle 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Rounded Rectangle 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Rounded Rectangle 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rounded Rectangle 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Rounded Rectangle 151"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10221,69 +10484,71 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7">
-        <v>416</v>
+        <v>240</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7">
-        <v>250</v>
+      <c r="G2" s="9">
+        <v>100</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7">
-        <v>682.8</v>
-      </c>
       <c r="I2" s="9">
-        <v>629.9</v>
+        <v>1959</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>943392499</v>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="U2" s="7"/>
       <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="Y2" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SODO\Khe Sanh\"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,43 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>CLN</t>
-  </si>
-  <si>
-    <t>205,9</t>
-  </si>
-  <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Hồ Thị Lan Phụng</t>
-  </si>
-  <si>
-    <t>21/8/2024</t>
-  </si>
-  <si>
-    <t>DO 772970</t>
-  </si>
-  <si>
-    <t>1627/24</t>
-  </si>
-  <si>
-    <t>0942792390</t>
-  </si>
-  <si>
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>019178007613</t>
+    <t>529,3</t>
   </si>
   <si>
-    <t/>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>105,9</t>
+    <t>Trần Giáo</t>
+  </si>
+  <si>
+    <t>DL 431883</t>
+  </si>
+  <si>
+    <t>1227/24</t>
+  </si>
+  <si>
+    <t>0382355458</t>
+  </si>
+  <si>
+    <t>045046000272</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Sửu</t>
+  </si>
+  <si>
+    <t>190271363</t>
   </si>
 </sst>
 </file>
@@ -201,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,6 +212,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -248,17 +254,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10045,6 +10051,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="152" name="Rounded Rectangle 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Rounded Rectangle 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Rounded Rectangle 153"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10390,13 +10526,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10482,76 +10619,70 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
+        <v>130</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>5163</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="9">
-        <v>100</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1959</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>33</v>
+      <c r="L2" s="9">
+        <v>45180</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="V2" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,31 @@
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>529,3</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>ODT</t>
   </si>
   <si>
-    <t>Trần Giáo</t>
+    <t>Nguyễn Quốc Khánh</t>
   </si>
   <si>
-    <t>DL 431883</t>
+    <t>DL 434388</t>
   </si>
   <si>
-    <t>1227/24</t>
+    <t>808/24</t>
   </si>
   <si>
-    <t>0382355458</t>
+    <t>0392678236</t>
   </si>
   <si>
-    <t>045046000272</t>
+    <t>045062003057</t>
   </si>
   <si>
-    <t>Hoàng Thị Sửu</t>
+    <t>Lê Thị Lan</t>
   </si>
   <si>
-    <t>190271363</t>
+    <t>045163006006</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,26 +215,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,17 +239,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10181,6 +10169,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="154" name="Rounded Rectangle 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Rounded Rectangle 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Rounded Rectangle 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Rounded Rectangle 156"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Rounded Rectangle 157"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10533,7 +10781,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10619,59 +10867,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
-        <v>79</v>
+        <v>165</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="8">
+        <v>9076.2999999999993</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>130</v>
+      <c r="G2" s="9">
+        <v>200</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>5163</v>
+      <c r="H2" s="7">
+        <v>8876.2999999999993</v>
+      </c>
+      <c r="I2" s="9">
+        <v>8876.2999999999993</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="L2" s="9">
-        <v>45180</v>
+      <c r="L2" s="10">
+        <v>45084</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="W2" s="7"/>
@@ -10680,9 +10936,7 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -113,34 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t/>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Thôn Hiệp Hòa, xã Tân Liên, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>ODT</t>
+    <t>ONT</t>
   </si>
   <si>
-    <t>Nguyễn Quốc Khánh</t>
+    <t>Lê Thị Hồng</t>
   </si>
   <si>
-    <t>DL 434388</t>
+    <t>17/7/2024</t>
   </si>
   <si>
-    <t>808/24</t>
+    <t>DO 701384</t>
   </si>
   <si>
-    <t>0392678236</t>
+    <t>1537/24</t>
   </si>
   <si>
-    <t>045062003057</t>
+    <t>0972431347</t>
   </si>
   <si>
-    <t>Lê Thị Lan</t>
+    <t>Tách Thửa</t>
   </si>
   <si>
-    <t>045163006006</t>
+    <t>045160007209</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,21 +239,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10429,6 +10417,201 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="158" name="Rounded Rectangle 157"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Rounded Rectangle 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Rounded Rectangle 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Rounded Rectangle 160"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10775,13 +10958,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10867,76 +11050,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>56</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
       </c>
-      <c r="B2" s="7">
-        <v>165</v>
+      <c r="B2">
+        <v>1343</v>
       </c>
-      <c r="C2" s="8">
-        <v>9076.2999999999993</v>
+      <c r="C2" s="7">
+        <v>4444.6000000000004</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="9">
-        <v>200</v>
+      <c r="G2" s="8">
+        <v>400</v>
       </c>
-      <c r="H2" s="7">
-        <v>8876.2999999999993</v>
+      <c r="H2">
+        <v>4044.6</v>
       </c>
-      <c r="I2" s="9">
-        <v>8876.2999999999993</v>
+      <c r="I2" s="8">
+        <v>4044.6000000000004</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="10">
-        <v>45084</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,34 +113,37 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t/>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Thôn Hiệp Hòa, xã Tân Liên, huyện Hướng Hóa</t>
+    <t>ODT</t>
   </si>
   <si>
-    <t>ONT</t>
+    <t>CLN</t>
   </si>
   <si>
-    <t>Lê Thị Hồng</t>
+    <t>Đinh Song Hào</t>
   </si>
   <si>
-    <t>17/7/2024</t>
+    <t>DO 958134</t>
   </si>
   <si>
-    <t>DO 701384</t>
+    <t>1547/24</t>
   </si>
   <si>
-    <t>1537/24</t>
+    <t>0972554666</t>
   </si>
   <si>
-    <t>0972431347</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Tách Thửa</t>
+    <t>045062004847</t>
   </si>
   <si>
-    <t>045160007209</t>
+    <t>Phan Thị Thái Lan</t>
+  </si>
+  <si>
+    <t>045167000887</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,9 +242,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10612,6 +10627,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="161" name="Rounded Rectangle 160"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Rounded Rectangle 161"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10958,13 +11038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11050,61 +11130,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>84</v>
       </c>
-      <c r="B2">
-        <v>1343</v>
+      <c r="B2" s="7">
+        <v>345</v>
       </c>
-      <c r="C2" s="7">
-        <v>4444.6000000000004</v>
+      <c r="C2" s="8">
+        <v>711.2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="G2" s="9">
+        <v>80</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="8">
-        <v>400</v>
+      <c r="I2" s="9">
+        <v>631.20000000000005</v>
       </c>
-      <c r="H2">
-        <v>4044.6</v>
-      </c>
-      <c r="I2" s="8">
-        <v>4044.6000000000004</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="10">
+        <v>39063</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="9" t="s">
-        <v>28</v>
+      <c r="V2" s="11" t="s">
+        <v>38</v>
       </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,19 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t/>
   </si>
   <si>
-    <t>ODT</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>CLN</t>
+    <t>Ông Nguyễn Long Vãng và bà Phan Thị Lạng</t>
   </si>
   <si>
-    <t>Đinh Song Hào</t>
+    <t>DL 424795</t>
   </si>
   <si>
-    <t>DO 958134</t>
-  </si>
-  <si>
-    <t>1547/24</t>
-  </si>
-  <si>
-    <t>0972554666</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>045062004847</t>
-  </si>
-  <si>
-    <t>Phan Thị Thái Lan</t>
-  </si>
-  <si>
-    <t>045167000887</t>
+    <t>1515/24</t>
   </si>
 </sst>
 </file>
@@ -222,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,21 +224,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10692,6 +10663,721 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="162" name="Rounded Rectangle 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Rounded Rectangle 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rounded Rectangle 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="Rounded Rectangle 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Rounded Rectangle 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="Rounded Rectangle 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Rounded Rectangle 167"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="Rounded Rectangle 168"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Rounded Rectangle 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="Rounded Rectangle 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="Rounded Rectangle 171"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="Rounded Rectangle 172"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11038,13 +11724,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11130,74 +11816,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>84</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>93</v>
       </c>
-      <c r="B2" s="7">
-        <v>345</v>
+      <c r="B2">
+        <v>147</v>
       </c>
-      <c r="C2" s="8">
-        <v>711.2</v>
+      <c r="C2" s="7">
+        <v>2601.3000000000002</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="10">
+        <v>45383</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="9">
-        <v>80</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="9">
-        <v>631.20000000000005</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="T2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="10">
-        <v>39063</v>
+      <c r="V2" s="9" t="s">
+        <v>28</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,16 +116,31 @@
     <t/>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Ông Nguyễn Long Vãng và bà Phan Thị Lạng</t>
+    <t>Lê Thị Thu Hường</t>
   </si>
   <si>
-    <t>DL 424795</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>1515/24</t>
+    <t>509/24</t>
+  </si>
+  <si>
+    <t>0962003333</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>28/3/2016</t>
+  </si>
+  <si>
+    <t>CB 535620</t>
+  </si>
+  <si>
+    <t>giảm 16.2</t>
   </si>
 </sst>
 </file>
@@ -204,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,7 +242,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11378,6 +11392,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="173" name="Rounded Rectangle 172"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="Rounded Rectangle 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="Rounded Rectangle 174"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11818,36 +11962,52 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B2">
-        <v>147</v>
+        <v>546</v>
       </c>
       <c r="C2" s="7">
-        <v>2601.3000000000002</v>
+        <v>221.8</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="G2" s="8">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8">
+        <v>171.8</v>
+      </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
-      <c r="L2" s="10">
-        <v>45383</v>
+      <c r="L2" t="s">
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>238</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2">
+        <v>36.9</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>28</v>
@@ -11855,6 +12015,12 @@
       <c r="V2" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="W2">
+        <v>670</v>
+      </c>
+      <c r="X2">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,28 @@
     <t/>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Lê Thị Thu Hường</t>
-  </si>
-  <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>509/24</t>
-  </si>
-  <si>
-    <t>0962003333</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>28/3/2016</t>
+    <t>Khối 6, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>CB 535620</t>
+    <t>Hồ Xuân Tuấn và bà Hồ Thị Thanh Tâm</t>
   </si>
   <si>
-    <t>giảm 16.2</t>
+    <t>20/8/2014</t>
+  </si>
+  <si>
+    <t>BQ 804658</t>
+  </si>
+  <si>
+    <t>giảm 264</t>
+  </si>
+  <si>
+    <t>1662/24</t>
+  </si>
+  <si>
+    <t>0978958164</t>
   </si>
 </sst>
 </file>
@@ -11522,6 +11519,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="175" name="Rounded Rectangle 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="Rounded Rectangle 175"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11962,52 +12024,52 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B2">
-        <v>546</v>
+        <v>115</v>
       </c>
       <c r="C2" s="7">
-        <v>221.8</v>
+        <v>2587</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="8">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I2" s="8">
-        <v>171.8</v>
+        <v>2287</v>
       </c>
       <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
+      <c r="L2" t="s">
+        <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>2851</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2">
+        <v>291.39999999999998</v>
+      </c>
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N2">
-        <v>238</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2">
-        <v>36.9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>28</v>
@@ -12016,10 +12078,10 @@
         <v>28</v>
       </c>
       <c r="W2">
-        <v>670</v>
+        <v>23</v>
       </c>
       <c r="X2">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,22 @@
     <t/>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 6, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Lê Dũng</t>
   </si>
   <si>
-    <t>Hồ Xuân Tuấn và bà Hồ Thị Thanh Tâm</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>20/8/2014</t>
+    <t>1772/24</t>
   </si>
   <si>
-    <t>BQ 804658</t>
+    <t>0987948150</t>
   </si>
   <si>
-    <t>giảm 264</t>
-  </si>
-  <si>
-    <t>1662/24</t>
-  </si>
-  <si>
-    <t>0978958164</t>
+    <t>Hợp thức hóa</t>
   </si>
 </sst>
 </file>
@@ -11584,6 +11578,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="176" name="Rounded Rectangle 175"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="Rounded Rectangle 176"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12024,52 +12083,33 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7">
-        <v>2587</v>
+        <v>1483.9</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="8">
-        <v>300</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2287</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N2">
-        <v>2851</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>34</v>
-      </c>
-      <c r="P2">
-        <v>291.39999999999998</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>28</v>
@@ -12077,12 +12117,6 @@
       <c r="V2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W2">
-        <v>23</v>
-      </c>
-      <c r="X2">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,22 +116,31 @@
     <t/>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 5, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Lê Dũng</t>
+    <t>Hồ Thị Minh</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>1772/24</t>
+    <t>19/10/2018</t>
   </si>
   <si>
-    <t>0987948150</t>
+    <t>CM 513344</t>
   </si>
   <si>
-    <t>Hợp thức hóa</t>
+    <t>1754/24</t>
+  </si>
+  <si>
+    <t>0915312089</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
+  </si>
+  <si>
+    <t>042176000662</t>
   </si>
 </sst>
 </file>
@@ -11643,6 +11652,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="177" name="Rounded Rectangle 176"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="Rounded Rectangle 177"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12083,36 +12157,46 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="C2" s="7">
-        <v>1483.9</v>
+        <v>1035</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="G2" s="8">
+        <v>300</v>
+      </c>
+      <c r="I2" s="8">
+        <v>735</v>
+      </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
+      <c r="R2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
       <c r="T2" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>28</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -11766,6 +11766,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="Rounded Rectangle 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,16 @@
     <t/>
   </si>
   <si>
-    <t>Khối 5, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Hồ Thị Minh</t>
+    <t>Nguyễn Phận</t>
   </si>
   <si>
-    <t>Thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>376/24</t>
   </si>
   <si>
-    <t>19/10/2018</t>
-  </si>
-  <si>
-    <t>CM 513344</t>
-  </si>
-  <si>
-    <t>1754/24</t>
-  </si>
-  <si>
-    <t>0915312089</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
-  </si>
-  <si>
-    <t>042176000662</t>
+    <t>0983337556</t>
   </si>
 </sst>
 </file>
@@ -11782,6 +11767,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="179" name="Rounded Rectangle 178"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="Rounded Rectangle 179"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12222,46 +12272,36 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C2" s="7">
-        <v>1035</v>
+        <v>1063.4000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>300</v>
+      <c r="G2" s="8"/>
+      <c r="H2">
+        <v>1063.4000000000001</v>
       </c>
-      <c r="I2" s="8">
-        <v>735</v>
-      </c>
+      <c r="I2" s="8"/>
       <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2">
+        <v>156.6</v>
+      </c>
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
       <c r="T2" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>28</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,16 +116,31 @@
     <t/>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Thôn An Tiêm, xã Tân Thành, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Nguyễn Phận</t>
+    <t>Trần Thị Thanh</t>
   </si>
   <si>
-    <t>376/24</t>
+    <t>15/7/2011</t>
   </si>
   <si>
-    <t>0983337556</t>
+    <t>BĐ 530494</t>
+  </si>
+  <si>
+    <t>giảm 0.2</t>
+  </si>
+  <si>
+    <t>726/24</t>
+  </si>
+  <si>
+    <t>0935675111</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
+  </si>
+  <si>
+    <t>190332681</t>
   </si>
 </sst>
 </file>
@@ -11832,6 +11847,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="180" name="Rounded Rectangle 179"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="Rounded Rectangle 180"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12272,36 +12352,52 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C2" s="7">
-        <v>1063.4000000000001</v>
+        <v>3651.8</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8">
+        <v>280</v>
+      </c>
       <c r="H2">
-        <v>1063.4000000000001</v>
+        <v>3371.8</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="8">
+        <v>3371.8</v>
+      </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="P2">
-        <v>156.6</v>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>28</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -116,31 +116,31 @@
     <t/>
   </si>
   <si>
-    <t>Thôn An Tiêm, xã Tân Thành, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Trần Thị Thanh</t>
-  </si>
-  <si>
-    <t>15/7/2011</t>
-  </si>
-  <si>
-    <t>BĐ 530494</t>
-  </si>
-  <si>
-    <t>giảm 0.2</t>
-  </si>
-  <si>
-    <t>726/24</t>
-  </si>
-  <si>
-    <t>0935675111</t>
-  </si>
-  <si>
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>190332681</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Hộ ông Lư Quang Hùng</t>
+  </si>
+  <si>
+    <t>29/06/2004</t>
+  </si>
+  <si>
+    <t>DD 202421</t>
+  </si>
+  <si>
+    <t>1635/24</t>
+  </si>
+  <si>
+    <t>0986105305</t>
+  </si>
+  <si>
+    <t>Đô Thị</t>
+  </si>
+  <si>
+    <t>780/24</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,11 +215,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,9 +254,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11912,6 +11939,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="181" name="Rounded Rectangle 180"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="Rounded Rectangle 181"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12258,13 +12350,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12350,57 +12442,69 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9</v>
+    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>84</v>
       </c>
-      <c r="B2">
-        <v>193</v>
+      <c r="B2" s="7">
+        <v>64</v>
       </c>
-      <c r="C2" s="7">
-        <v>3651.8</v>
+      <c r="C2" s="8">
+        <v>1519</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8">
+        <v>200</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1319</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1319</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>280</v>
-      </c>
-      <c r="H2">
-        <v>3371.8</v>
-      </c>
-      <c r="I2" s="8">
-        <v>3371.8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -137,10 +137,10 @@
     <t>0986105305</t>
   </si>
   <si>
-    <t>Đô Thị</t>
+    <t>780/24</t>
   </si>
   <si>
-    <t>780/24</t>
+    <t>045062000850</t>
   </si>
 </sst>
 </file>
@@ -12004,6 +12004,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="182" name="Rounded Rectangle 181"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="Rounded Rectangle 182"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12491,7 +12556,7 @@
         <v>29</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="11" t="s">
@@ -12504,7 +12569,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,19 @@
     <t/>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t>Thôn Tân Vĩnh, xã Hướng Tân, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Nguyễn Quang Tuân</t>
   </si>
   <si>
-    <t>Hộ ông Lư Quang Hùng</t>
+    <t>737/24</t>
   </si>
   <si>
-    <t>29/06/2004</t>
+    <t>0974063982</t>
   </si>
   <si>
-    <t>DD 202421</t>
-  </si>
-  <si>
-    <t>1635/24</t>
-  </si>
-  <si>
-    <t>0986105305</t>
-  </si>
-  <si>
-    <t>780/24</t>
-  </si>
-  <si>
-    <t>045062000850</t>
+    <t>Hợp thức hóa</t>
   </si>
 </sst>
 </file>
@@ -192,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,26 +203,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,21 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12069,6 +12030,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="183" name="Rounded Rectangle 182"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="Rounded Rectangle 183"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12415,13 +12441,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12507,69 +12533,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>84</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
       </c>
-      <c r="B2" s="7">
-        <v>64</v>
+      <c r="B2">
+        <v>89</v>
       </c>
-      <c r="C2" s="8">
-        <v>1519</v>
+      <c r="C2" s="7">
+        <v>2765.3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8">
-        <v>200</v>
+      <c r="K2" t="s">
+        <v>29</v>
       </c>
-      <c r="H2" s="7">
-        <v>1319</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1319</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>36</v>
+      <c r="V2" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,19 +116,28 @@
     <t/>
   </si>
   <si>
-    <t>Thôn Tân Vĩnh, xã Hướng Tân, huyện Hướng Hóa</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Nguyễn Quang Tuân</t>
+    <t>3129,6</t>
   </si>
   <si>
-    <t>737/24</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>0974063982</t>
+    <t>Nguyễn Thị Thủy</t>
   </si>
   <si>
-    <t>Hợp thức hóa</t>
+    <t>27/6/2003</t>
+  </si>
+  <si>
+    <t>X 567035</t>
+  </si>
+  <si>
+    <t>1502/24</t>
+  </si>
+  <si>
+    <t>0327539650</t>
   </si>
 </sst>
 </file>
@@ -12095,6 +12104,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="184" name="Rounded Rectangle 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="Rounded Rectangle 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="Rounded Rectangle 185"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12535,33 +12674,39 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>112</v>
       </c>
-      <c r="C2" s="7">
-        <v>2765.3</v>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>28</v>
@@ -12569,6 +12714,12 @@
       <c r="V2" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="W2">
+        <v>109</v>
+      </c>
+      <c r="X2">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -119,25 +119,22 @@
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>3129,6</t>
+    <t>Khối 6, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Hồ Văn Thọ</t>
   </si>
   <si>
-    <t>Nguyễn Thị Thủy</t>
+    <t>27/12/2001</t>
   </si>
   <si>
-    <t>27/6/2003</t>
+    <t>U 577180</t>
   </si>
   <si>
-    <t>X 567035</t>
+    <t>1394/24</t>
   </si>
   <si>
-    <t>1502/24</t>
-  </si>
-  <si>
-    <t>0327539650</t>
+    <t>0842199316</t>
   </si>
 </sst>
 </file>
@@ -12234,6 +12231,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="186" name="Rounded Rectangle 185"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="Rounded Rectangle 186"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="Rounded Rectangle 187"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12674,36 +12801,39 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>65</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="7">
+        <v>3372.5</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
+      <c r="F2">
+        <v>300</v>
       </c>
       <c r="G2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="S2" t="s">
         <v>29</v>
@@ -12715,10 +12845,10 @@
         <v>28</v>
       </c>
       <c r="W2">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="X2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,28 +113,40 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t/>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Hộ ông Hồ Đăng Đoan</t>
   </si>
   <si>
-    <t>Khối 6, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>26/9/2024</t>
   </si>
   <si>
-    <t>Hồ Văn Thọ</t>
+    <t>DI 098453</t>
   </si>
   <si>
-    <t>27/12/2001</t>
+    <t>41,6</t>
   </si>
   <si>
-    <t>U 577180</t>
+    <t>1723/24</t>
   </si>
   <si>
-    <t>1394/24</t>
+    <t>0979559927</t>
   </si>
   <si>
-    <t>0842199316</t>
+    <t>Tách thửa</t>
+  </si>
+  <si>
+    <t>045063005864</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Quyên</t>
+  </si>
+  <si>
+    <t>045162002909</t>
+  </si>
+  <si>
+    <t>VP 16263</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,11 +221,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,9 +260,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12361,6 +12400,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="188" name="Rounded Rectangle 187"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="Rounded Rectangle 188"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12707,13 +12811,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12799,56 +12903,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>93</v>
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>50</v>
       </c>
-      <c r="B2">
-        <v>65</v>
+      <c r="B2" s="7">
+        <v>25</v>
       </c>
-      <c r="C2" s="7">
-        <v>3372.5</v>
+      <c r="C2" s="8">
+        <v>8701</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
+        <v>300</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>8401</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="7">
+        <v>26</v>
+      </c>
+      <c r="X2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="7">
         <v>300</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2">
-        <v>198</v>
-      </c>
-      <c r="X2">
-        <v>35</v>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -12514,6 +12514,136 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="Rounded Rectangle 189"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="Rounded Rectangle 190"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12911,7 +13041,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="8">
-        <v>8701</v>
+        <v>8682.4</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>28</v>
@@ -12921,9 +13051,11 @@
       <c r="G2" s="7">
         <v>300</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7">
+        <v>8382.4</v>
+      </c>
       <c r="I2" s="7">
-        <v>8401</v>
+        <v>8382.4</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>29</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,40 +113,37 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>236,7</t>
   </si>
   <si>
-    <t>Hộ ông Hồ Đăng Đoan</t>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>26/9/2024</t>
+    <t>Đinh Văn Lý</t>
   </si>
   <si>
-    <t>DI 098453</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>41,6</t>
+    <t>AE 533690</t>
   </si>
   <si>
-    <t>1723/24</t>
+    <t>giảm 4,3</t>
   </si>
   <si>
-    <t>0979559927</t>
+    <t>19,7</t>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t>1770/24</t>
   </si>
   <si>
-    <t>045063005864</t>
+    <t>0913427412</t>
   </si>
   <si>
-    <t>Hoàng Thị Quyên</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>045162002909</t>
-  </si>
-  <si>
-    <t>VP 16263</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -198,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,26 +218,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,21 +242,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12595,6 +12566,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="191" name="Rounded Rectangle 190"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="Rounded Rectangle 191"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12941,13 +12977,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13033,79 +13069,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>50</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>75</v>
       </c>
-      <c r="B2" s="7">
-        <v>25</v>
+      <c r="B2">
+        <v>126</v>
       </c>
-      <c r="C2" s="8">
-        <v>8682.4</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>300</v>
-      </c>
-      <c r="H2" s="7">
-        <v>8382.4</v>
-      </c>
-      <c r="I2" s="7">
-        <v>8382.4</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
+      <c r="G2" s="8">
+        <v>236.7</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="I2" s="8">
+        <v>2130.3000000000002</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="L2" s="9">
+        <v>39063</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="7">
-        <v>26</v>
+      <c r="V2" s="10" t="s">
+        <v>38</v>
       </c>
-      <c r="X2" s="7">
-        <v>5</v>
+      <c r="W2">
+        <v>103</v>
       </c>
-      <c r="Y2" s="7">
-        <v>300</v>
-      </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>39</v>
+      <c r="X2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,40 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>236,7</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Hộ ông Hồ Đăng Đoan</t>
   </si>
   <si>
-    <t>Đinh Văn Lý</t>
+    <t>26/9/2024</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>DI 098453</t>
   </si>
   <si>
-    <t>AE 533690</t>
+    <t>41,6</t>
   </si>
   <si>
-    <t>giảm 4,3</t>
+    <t>1723/24</t>
   </si>
   <si>
-    <t>19,7</t>
+    <t>0979559927</t>
   </si>
   <si>
-    <t>1770/24</t>
+    <t>Tách thửa</t>
   </si>
   <si>
-    <t>0913427412</t>
+    <t>045063005864</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Hoàng Thị Quyên</t>
   </si>
   <si>
-    <t/>
+    <t>045162002909</t>
+  </si>
+  <si>
+    <t>VP 16263</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,11 +221,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,10 +260,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12631,6 +12660,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="192" name="Rounded Rectangle 191"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="Rounded Rectangle 192"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12977,13 +13071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13069,63 +13163,79 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>75</v>
+    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>50</v>
       </c>
-      <c r="B2">
-        <v>126</v>
+      <c r="B2" s="7">
+        <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8">
+        <v>8682.4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7">
+        <v>300</v>
+      </c>
+      <c r="H2" s="7">
+        <v>8382.4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8382.4</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>236.7</v>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="I2" s="8">
-        <v>2130.3000000000002</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9">
-        <v>39063</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>38</v>
+      <c r="W2" s="7">
+        <v>26</v>
       </c>
-      <c r="W2">
-        <v>103</v>
+      <c r="X2" s="7">
+        <v>5</v>
       </c>
-      <c r="X2">
-        <v>22</v>
+      <c r="Y2" s="7">
+        <v>300</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,37 +116,34 @@
     <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Hộ ông Hồ Đăng Đoan</t>
-  </si>
-  <si>
-    <t>26/9/2024</t>
-  </si>
-  <si>
-    <t>DI 098453</t>
-  </si>
-  <si>
-    <t>41,6</t>
-  </si>
-  <si>
-    <t>1723/24</t>
-  </si>
-  <si>
     <t>0979559927</t>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t>Nguyễn Hà</t>
   </si>
   <si>
-    <t>045063005864</t>
+    <t>23/9/2024</t>
   </si>
   <si>
-    <t>Hoàng Thị Quyên</t>
+    <t>DI 098411</t>
   </si>
   <si>
-    <t>045162002909</t>
+    <t>1695/24</t>
   </si>
   <si>
-    <t>VP 16263</t>
+    <t>Cấp đổi</t>
+  </si>
+  <si>
+    <t>045064003284</t>
+  </si>
+  <si>
+    <t>Hồ Thị Liệu</t>
+  </si>
+  <si>
+    <t>045166007128</t>
+  </si>
+  <si>
+    <t>VP 16260</t>
   </si>
 </sst>
 </file>
@@ -240,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,19 +258,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12725,6 +12719,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="193" name="Rounded Rectangle 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="Rounded Rectangle 193"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13165,15 +13224,15 @@
     </row>
     <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7">
-        <v>25</v>
+        <v>47</v>
       </c>
-      <c r="C2" s="8">
-        <v>8682.4</v>
+      <c r="C2" s="7">
+        <v>5632.3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="7"/>
@@ -13181,53 +13240,47 @@
       <c r="G2" s="7">
         <v>300</v>
       </c>
-      <c r="H2" s="7">
-        <v>8382.4</v>
-      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="7">
-        <v>8382.4</v>
+        <v>5332.3</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>30</v>
+      <c r="L2" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
-        <v>32</v>
+      <c r="P2" s="7">
+        <v>173.3</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="7">
-        <v>26</v>
-      </c>
-      <c r="X2" s="7">
-        <v>5</v>
-      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
       <c r="Y2" s="7">
         <v>300</v>
       </c>
@@ -13235,7 +13288,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -12644,6 +12644,136 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="Rounded Rectangle 191"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="Rounded Rectangle 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -113,37 +113,37 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>ODT</t>
   </si>
   <si>
-    <t>0979559927</t>
+    <t>CLN</t>
   </si>
   <si>
-    <t>Nguyễn Hà</t>
+    <t>1547/24</t>
   </si>
   <si>
-    <t>23/9/2024</t>
+    <t>0972554666</t>
   </si>
   <si>
-    <t>DI 098411</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>1695/24</t>
+    <t>Đinh Song Hào</t>
+  </si>
+  <si>
+    <t>DO 958134</t>
   </si>
   <si>
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>045064003284</t>
+    <t>045062004847</t>
   </si>
   <si>
-    <t>Hồ Thị Liệu</t>
+    <t>Phan Thị Thái Lan</t>
   </si>
   <si>
-    <t>045166007128</t>
-  </si>
-  <si>
-    <t>VP 16260</t>
+    <t>045167000887</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,26 +218,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,17 +242,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12784,6 +12772,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="194" name="Rounded Rectangle 193"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="Rounded Rectangle 194"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="Rounded Rectangle 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="Rounded Rectangle 196"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="Rounded Rectangle 197"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13136,7 +13384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13222,74 +13470,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7">
-        <v>47</v>
+        <v>345</v>
       </c>
-      <c r="C2" s="7">
-        <v>5632.3</v>
+      <c r="C2" s="8">
+        <v>711.2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7">
-        <v>300</v>
+      <c r="G2" s="9">
+        <v>80</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>5332.3</v>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9">
+        <v>631.20000000000005</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>31</v>
+      <c r="L2" s="10">
+        <v>39063</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7">
-        <v>173.3</v>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>30</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>29</v>
+      <c r="R2" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>37</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="7">
-        <v>300</v>
-      </c>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,28 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>ODT</t>
-  </si>
-  <si>
-    <t>CLN</t>
-  </si>
-  <si>
-    <t>1547/24</t>
-  </si>
-  <si>
-    <t>0972554666</t>
-  </si>
-  <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Đinh Song Hào</t>
-  </si>
-  <si>
-    <t>DO 958134</t>
-  </si>
-  <si>
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>045062004847</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Phan Thị Thái Lan</t>
+    <t>Nguyễn Thị Loan</t>
   </si>
   <si>
-    <t>045167000887</t>
+    <t>30/8/2012</t>
+  </si>
+  <si>
+    <t>BL 851028</t>
+  </si>
+  <si>
+    <t>1051/24</t>
+  </si>
+  <si>
+    <t>0975274265</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -222,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,21 +233,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13032,6 +13011,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="198" name="Rounded Rectangle 197"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="Rounded Rectangle 198"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13378,13 +13422,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13470,74 +13514,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>84</v>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>85</v>
       </c>
-      <c r="B2" s="7">
-        <v>345</v>
+      <c r="B2">
+        <v>146</v>
       </c>
-      <c r="C2" s="8">
-        <v>711.2</v>
+      <c r="C2" s="7">
+        <v>792</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8">
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <v>492</v>
+      </c>
+      <c r="I2" s="8">
+        <v>492</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
+      <c r="Q2" t="s">
+        <v>33</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="R2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9">
-        <v>80</v>
+      <c r="T2" s="9" t="s">
+        <v>35</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>29</v>
+      <c r="V2" s="9" t="s">
+        <v>35</v>
       </c>
-      <c r="I2" s="9">
-        <v>631.20000000000005</v>
+      <c r="W2">
+        <v>106</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="10">
-        <v>39063</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="11" t="s">
+      <c r="X2">
         <v>31</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -122,19 +122,19 @@
     <t>Nguyễn Thị Loan</t>
   </si>
   <si>
-    <t>30/8/2012</t>
-  </si>
-  <si>
-    <t>BL 851028</t>
-  </si>
-  <si>
-    <t>1051/24</t>
-  </si>
-  <si>
     <t>0975274265</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Đ 608875</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>1052/24</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +236,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13076,6 +13077,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="199" name="Rounded Rectangle 198"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="Rounded Rectangle 199"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13519,22 +13585,22 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C2" s="7">
-        <v>792</v>
+        <v>213.6</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>492</v>
+        <v>113.6</v>
       </c>
       <c r="I2" s="8">
-        <v>492</v>
+        <v>113.6</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
@@ -13542,29 +13608,38 @@
       <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
+      <c r="L2" s="10">
+        <v>38083</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>229</v>
+      </c>
+      <c r="O2">
+        <v>15.4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="W2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="X2">
         <v>31</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -119,22 +119,22 @@
     <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Nguyễn Thị Loan</t>
-  </si>
-  <si>
-    <t>0975274265</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Đ 608875</t>
+    <t>Hộ ông Nguyễn Văn Minh</t>
   </si>
   <si>
-    <t>5,9</t>
+    <t>27/12/2001</t>
   </si>
   <si>
-    <t>1052/24</t>
+    <t>U 577280</t>
+  </si>
+  <si>
+    <t>1706/24</t>
+  </si>
+  <si>
+    <t>0333250444</t>
   </si>
 </sst>
 </file>
@@ -233,10 +233,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13142,6 +13150,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="200" name="Rounded Rectangle 199"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="Rounded Rectangle 200"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13580,69 +13653,60 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>85</v>
+    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>84</v>
       </c>
-      <c r="B2">
-        <v>80</v>
+      <c r="B2" s="7">
+        <v>201</v>
       </c>
-      <c r="C2" s="7">
-        <v>213.6</v>
+      <c r="C2" s="8">
+        <v>596.4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="8">
-        <v>100</v>
+      <c r="G2" s="9">
+        <v>300</v>
       </c>
-      <c r="H2">
-        <v>113.6</v>
+      <c r="I2" s="9">
+        <v>296.39999999999998</v>
       </c>
-      <c r="I2" s="8">
-        <v>113.6</v>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7">
+        <v>613</v>
+      </c>
+      <c r="O2" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P2" s="7">
+        <v>123.2</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="10">
-        <v>38083</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2">
-        <v>229</v>
-      </c>
-      <c r="O2">
-        <v>15.4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2">
-        <v>138</v>
-      </c>
-      <c r="X2">
-        <v>31</v>
+      <c r="V2" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,28 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
-  </si>
-  <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Hộ ông Nguyễn Văn Minh</t>
+    <t>236,7</t>
   </si>
   <si>
-    <t>27/12/2001</t>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>U 577280</t>
+    <t>Đinh Văn Lý</t>
   </si>
   <si>
-    <t>1706/24</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>0333250444</t>
+    <t>CX 958198</t>
+  </si>
+  <si>
+    <t>0913427412</t>
+  </si>
+  <si>
+    <t>Tách thửa</t>
+  </si>
+  <si>
+    <t>045053002434</t>
+  </si>
+  <si>
+    <t>VP 48</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,6 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13215,6 +13224,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="201" name="Rounded Rectangle 200"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="Rounded Rectangle 201"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13561,13 +13635,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13653,60 +13727,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
-        <v>201</v>
+        <v>126</v>
       </c>
-      <c r="C2" s="8">
-        <v>596.4</v>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="9">
-        <v>300</v>
+        <v>236.7</v>
       </c>
       <c r="I2" s="9">
-        <v>296.39999999999998</v>
+        <v>2130.3000000000002</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>32</v>
+      <c r="L2" s="11">
+        <v>45302</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7">
-        <v>613</v>
-      </c>
-      <c r="O2" s="7">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="P2" s="7">
-        <v>123.2</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>30</v>
+      <c r="AC2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Số tờ</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>VP 48</t>
+  </si>
+  <si>
+    <t>1930/24</t>
   </si>
 </sst>
 </file>
@@ -13289,6 +13292,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="202" name="Rounded Rectangle 201"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="Rounded Rectangle 202"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13753,10 +13821,13 @@
         <v>32</v>
       </c>
       <c r="L2" s="11">
-        <v>45302</v>
+        <v>45597</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>34</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,37 +113,40 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>236,7</t>
-  </si>
-  <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Đinh Văn Lý</t>
-  </si>
-  <si>
     <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>CX 958198</t>
-  </si>
-  <si>
-    <t>0913427412</t>
   </si>
   <si>
     <t>Tách thửa</t>
   </si>
   <si>
-    <t>045053002434</t>
+    <t>1657,0</t>
   </si>
   <si>
-    <t>VP 48</t>
+    <t>Trương Văn Anh</t>
   </si>
   <si>
-    <t>1930/24</t>
+    <t>23/9/2024</t>
+  </si>
+  <si>
+    <t>DI 098236</t>
+  </si>
+  <si>
+    <t>1721/24</t>
+  </si>
+  <si>
+    <t>0387413613</t>
+  </si>
+  <si>
+    <t>045065001045</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tuyền</t>
+  </si>
+  <si>
+    <t>045168001279</t>
+  </si>
+  <si>
+    <t>VP 16262</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,9 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13357,6 +13357,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="203" name="Rounded Rectangle 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="Rounded Rectangle 203"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13797,52 +13862,58 @@
     </row>
     <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" s="7">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="9">
-        <v>236.7</v>
+        <v>220</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1437</v>
       </c>
       <c r="I2" s="9">
-        <v>2130.3000000000002</v>
+        <v>16350</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="11">
-        <v>45597</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="U2" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="V2" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,40 +113,25 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t/>
+  </si>
+  <si>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+  </si>
+  <si>
+    <t>Phan Hiền và bà Lê Thị Xuân</t>
+  </si>
+  <si>
+    <t>BA 637085</t>
+  </si>
+  <si>
+    <t>1741/24</t>
+  </si>
+  <si>
+    <t>0984570936</t>
   </si>
   <si>
     <t>Tách thửa</t>
-  </si>
-  <si>
-    <t>1657,0</t>
-  </si>
-  <si>
-    <t>Trương Văn Anh</t>
-  </si>
-  <si>
-    <t>23/9/2024</t>
-  </si>
-  <si>
-    <t>DI 098236</t>
-  </si>
-  <si>
-    <t>1721/24</t>
-  </si>
-  <si>
-    <t>0387413613</t>
-  </si>
-  <si>
-    <t>045065001045</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tuyền</t>
-  </si>
-  <si>
-    <t>045168001279</t>
-  </si>
-  <si>
-    <t>VP 16262</t>
   </si>
 </sst>
 </file>
@@ -225,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,6 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13422,6 +13410,201 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="204" name="Rounded Rectangle 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="Rounded Rectangle 204"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="Rounded Rectangle 205"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="Rounded Rectangle 206"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13768,13 +13951,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13860,60 +14043,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7">
-        <v>77</v>
+        <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="8">
+        <v>3488</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7">
+        <v>3488</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="11">
+        <v>40213</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9">
-        <v>220</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1437</v>
-      </c>
-      <c r="I2" s="9">
-        <v>16350</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>32</v>
+      <c r="W2" s="7">
+        <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>39</v>
+      <c r="X2" s="7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,22 +116,28 @@
     <t/>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Phan Hiền và bà Lê Thị Xuân</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>BA 637085</t>
+    <t>Mai Tiến Dũng</t>
   </si>
   <si>
-    <t>1741/24</t>
+    <t>29/10/2003</t>
   </si>
   <si>
-    <t>0984570936</t>
+    <t>X 567858</t>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t>1827/24</t>
+  </si>
+  <si>
+    <t>0935803789</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài Thu</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,9 +248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13605,6 +13608,201 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="207" name="Rounded Rectangle 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="Rounded Rectangle 207"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="Rounded Rectangle 208"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="Rounded Rectangle 209"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14045,54 +14243,64 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7">
+        <v>70</v>
+      </c>
+      <c r="C2" s="8">
+        <v>214.8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100</v>
+      </c>
+      <c r="I2" s="9">
+        <v>114.80000000000001</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8">
-        <v>3488</v>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7">
-        <v>3488</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="11">
-        <v>40213</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>31</v>
+      <c r="N2" s="7">
+        <v>221</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>28</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="7">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="X2" s="7">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,28 @@
     <t/>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>1964/24</t>
   </si>
   <si>
-    <t>Mai Tiến Dũng</t>
+    <t>Hợp thửa</t>
   </si>
   <si>
-    <t>29/10/2003</t>
+    <t>Nguyễn Thị Thu Hường</t>
   </si>
   <si>
-    <t>X 567858</t>
+    <t>Tổ 5, Khu phố 4, Phường 3,thị xã Quảng Trị</t>
   </si>
   <si>
-    <t>1827/24</t>
+    <t>045183000476</t>
   </si>
   <si>
-    <t>0935803789</t>
+    <t>CM 549828</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hoài Thu</t>
+    <t>CS15821</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,6 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13803,6 +13806,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="210" name="Rounded Rectangle 209"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="Rounded Rectangle 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="Rounded Rectangle 211"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="Rounded Rectangle 212"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="Rounded Rectangle 213"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14149,13 +14412,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14241,66 +14504,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B2" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8">
-        <v>214.8</v>
+        <v>2436</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7">
+        <v>2436</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="11">
+        <v>43803</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="9">
-        <v>100</v>
+      <c r="R2" s="10" t="s">
+        <v>28</v>
       </c>
-      <c r="I2" s="9">
-        <v>114.80000000000001</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="7">
-        <v>221</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="7">
-        <v>191</v>
-      </c>
-      <c r="X2" s="7">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>191</v>
+      <c r="AC2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,25 @@
     <t/>
   </si>
   <si>
-    <t>Khối 1, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>5110,8</t>
   </si>
   <si>
-    <t>1964/24</t>
+    <t>Thôn Tân Linh, xã Hướng Tân, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Hợp thửa</t>
+    <t>Trần Văn Điền</t>
   </si>
   <si>
-    <t>Nguyễn Thị Thu Hường</t>
+    <t>L 355924</t>
   </si>
   <si>
-    <t>Tổ 5, Khu phố 4, Phường 3,thị xã Quảng Trị</t>
+    <t>871/24</t>
   </si>
   <si>
-    <t>045183000476</t>
+    <t>0946654666</t>
   </si>
   <si>
-    <t>CM 549828</t>
-  </si>
-  <si>
-    <t>CS15821</t>
+    <t>Cấp đô</t>
   </si>
 </sst>
 </file>
@@ -14066,6 +14063,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="214" name="Rounded Rectangle 213"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="Rounded Rectangle 214"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="Rounded Rectangle 215"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="Rounded Rectangle 216"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="Rounded Rectangle 217"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14412,13 +14669,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14504,53 +14761,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>100</v>
+        <v>22</v>
       </c>
-      <c r="C2" s="8">
-        <v>2436</v>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="7">
-        <v>2436</v>
+        <v>5110.8</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="11">
+        <v>35441</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="11">
-        <v>43803</v>
+      <c r="R2" s="10" t="s">
+        <v>34</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>36</v>
+      <c r="W2" s="7">
+        <v>38</v>
+      </c>
+      <c r="X2" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,25 +116,31 @@
     <t/>
   </si>
   <si>
-    <t>5110,8</t>
+    <t>941,6</t>
   </si>
   <si>
-    <t>Thôn Tân Linh, xã Hướng Tân, huyện Hướng Hóa</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Trần Văn Điền</t>
+    <t>641,6</t>
   </si>
   <si>
-    <t>L 355924</t>
+    <t>Hộ bà Nguyễn Thị Hồng</t>
   </si>
   <si>
-    <t>871/24</t>
+    <t>21/5/2004</t>
   </si>
   <si>
-    <t>0946654666</t>
+    <t>Đ 608904</t>
   </si>
   <si>
-    <t>Cấp đô</t>
+    <t>1752/24</t>
+  </si>
+  <si>
+    <t>0982290426</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,9 +251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14323,6 +14326,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="218" name="Rounded Rectangle 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="Rounded Rectangle 218"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14763,10 +14831,10 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>29</v>
@@ -14774,31 +14842,35 @@
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7">
-        <v>5110.8</v>
+      <c r="G2" s="9">
+        <v>300</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="9">
+        <v>9116</v>
+      </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11">
-        <v>35441</v>
+      <c r="L2" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>28</v>
@@ -14807,10 +14879,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="7">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="X2" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,31 +116,25 @@
     <t/>
   </si>
   <si>
-    <t>941,6</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>641,6</t>
+    <t>Hộ bà Võ Trần Ngọc Bình</t>
   </si>
   <si>
-    <t>Hộ bà Nguyễn Thị Hồng</t>
+    <t>26/4/2004</t>
   </si>
   <si>
-    <t>21/5/2004</t>
+    <t>Đ 608694</t>
   </si>
   <si>
-    <t>Đ 608904</t>
+    <t>1565/24</t>
   </si>
   <si>
-    <t>1752/24</t>
-  </si>
-  <si>
-    <t>0982290426</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
+    <t>0941393368</t>
   </si>
 </sst>
 </file>
@@ -14391,6 +14385,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="219" name="Rounded Rectangle 218"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="Rounded Rectangle 219"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14831,46 +14890,49 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7">
-        <v>231</v>
+        <v>348</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>194</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="9">
-        <v>300</v>
+        <v>100</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>31</v>
+      <c r="H2" s="7">
+        <v>94</v>
       </c>
       <c r="I2" s="9">
-        <v>9116</v>
+        <v>94</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7">
+        <v>185</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="S2" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>28</v>
@@ -14879,10 +14941,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="7">
-        <v>148</v>
+        <v>557</v>
       </c>
       <c r="X2" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,25 +116,25 @@
     <t/>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Thôn Kim Giao, xã Hải Dương, huyện Hải Lăng, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Hộ bà Võ Trần Ngọc Bình</t>
+    <t>0338879206</t>
   </si>
   <si>
-    <t>26/4/2004</t>
+    <t>Hợp thức hóa</t>
   </si>
   <si>
-    <t>Đ 608694</t>
+    <t>561,1</t>
   </si>
   <si>
-    <t>1565/24</t>
+    <t>1959/24</t>
   </si>
   <si>
-    <t>0941393368</t>
+    <t>Nguyễn Văn Lộc</t>
   </si>
 </sst>
 </file>
@@ -14450,6 +14450,201 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="220" name="Rounded Rectangle 219"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="Rounded Rectangle 220"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="Rounded Rectangle 221"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="Rounded Rectangle 222"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14890,49 +15085,39 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8">
-        <v>194</v>
+        <v>2434.8000000000002</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="G2" s="9">
-        <v>100</v>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7">
+        <v>2434.8000000000002</v>
       </c>
-      <c r="H2" s="7">
-        <v>94</v>
-      </c>
-      <c r="I2" s="9">
-        <v>94</v>
-      </c>
+      <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" s="7">
-        <v>185</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>28</v>
@@ -14940,12 +15125,6 @@
       <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="7">
-        <v>557</v>
-      </c>
-      <c r="X2" s="7">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,25 +116,19 @@
     <t/>
   </si>
   <si>
-    <t>Khối 7, thị trấn Khe Sanh, huyện Hướng Hóa</t>
-  </si>
-  <si>
-    <t>Thôn Kim Giao, xã Hải Dương, huyện Hải Lăng, tỉnh Quảng Trị</t>
-  </si>
-  <si>
-    <t>0338879206</t>
-  </si>
-  <si>
     <t>Hợp thức hóa</t>
   </si>
   <si>
-    <t>561,1</t>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>1959/24</t>
+    <t>Phan Văn Mùi và Lê Thị Nga</t>
   </si>
   <si>
-    <t>Nguyễn Văn Lộc</t>
+    <t>1919/24</t>
+  </si>
+  <si>
+    <t>0977983708</t>
   </si>
 </sst>
 </file>
@@ -14645,6 +14639,266 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="223" name="Rounded Rectangle 222"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="Rounded Rectangle 223"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="Rounded Rectangle 224"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="Rounded Rectangle 225"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="Rounded Rectangle 226"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15085,39 +15339,33 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B2" s="7">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8">
-        <v>2434.8000000000002</v>
+        <v>366.7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="7">
-        <v>2434.8000000000002</v>
-      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="S2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>28</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Số tờ</t>
   </si>
@@ -122,13 +122,16 @@
     <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Phan Văn Mùi và Lê Thị Nga</t>
+    <t>1870,4</t>
   </si>
   <si>
-    <t>1919/24</t>
+    <t>Nguyễn Ngọc Thái</t>
   </si>
   <si>
-    <t>0977983708</t>
+    <t>1773/24</t>
+  </si>
+  <si>
+    <t>0375468345</t>
   </si>
 </sst>
 </file>
@@ -14899,6 +14902,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="227" name="Rounded Rectangle 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="Rounded Rectangle 227"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15339,13 +15407,13 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7">
-        <v>65</v>
+        <v>309</v>
       </c>
-      <c r="C2" s="8">
-        <v>366.7</v>
+      <c r="C2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
@@ -15353,16 +15421,16 @@
       <c r="G2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>29</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,22 +116,28 @@
     <t/>
   </si>
   <si>
-    <t>Hợp thức hóa</t>
+    <t>537,3</t>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>1870,4</t>
+    <t>Hộ ông Lê Trung Sơn</t>
   </si>
   <si>
-    <t>Nguyễn Ngọc Thái</t>
+    <t>Y 637899</t>
   </si>
   <si>
-    <t>1773/24</t>
+    <t>125,3</t>
   </si>
   <si>
-    <t>0375468345</t>
+    <t>1328/24</t>
+  </si>
+  <si>
+    <t>0915904233</t>
+  </si>
+  <si>
+    <t>Cấp đổi</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,6 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14967,6 +14976,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="228" name="Rounded Rectangle 227"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="Rounded Rectangle 228"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15407,33 +15481,48 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7">
-        <v>309</v>
+        <v>140</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="F2" s="7">
+        <v>220</v>
+      </c>
       <c r="G2" s="9"/>
+      <c r="H2" s="7">
+        <v>317.3</v>
+      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="L2" s="11">
+        <v>38234</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="R2" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="S2" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>28</v>
@@ -15441,6 +15530,12 @@
       <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="W2" s="7">
+        <v>93</v>
+      </c>
+      <c r="X2" s="7">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Số tờ</t>
   </si>
@@ -116,28 +116,25 @@
     <t/>
   </si>
   <si>
-    <t>537,3</t>
+    <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Hộ ông Lê Trung Sơn</t>
+    <t>308,8</t>
   </si>
   <si>
-    <t>Y 637899</t>
+    <t>Hộ ông Nguyễn Thanh Bằng</t>
   </si>
   <si>
-    <t>125,3</t>
+    <t>X 567809</t>
   </si>
   <si>
-    <t>1328/24</t>
+    <t>844/24</t>
   </si>
   <si>
-    <t>0915904233</t>
-  </si>
-  <si>
-    <t>Cấp đổi</t>
+    <t>0914725225</t>
   </si>
 </sst>
 </file>
@@ -15041,6 +15038,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="229" name="Rounded Rectangle 228"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="Rounded Rectangle 229"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15484,36 +15546,42 @@
         <v>80</v>
       </c>
       <c r="B2" s="7">
-        <v>140</v>
+        <v>175</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
+      <c r="C2" s="8">
+        <v>408.8</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="7">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="7">
-        <v>317.3</v>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="11">
-        <v>38234</v>
+        <v>37812</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>33</v>
+      <c r="N2" s="7">
+        <v>354</v>
+      </c>
+      <c r="O2" s="7">
+        <v>-54.8</v>
+      </c>
+      <c r="P2" s="7">
+        <v>213.4</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>34</v>
@@ -15522,7 +15590,7 @@
         <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>28</v>
@@ -15531,10 +15599,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="X2" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -119,22 +119,22 @@
     <t>Cấp đổi</t>
   </si>
   <si>
-    <t>Khối 2, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>308,8</t>
+    <t>Hộ ông Nguyễn Hữu Sở</t>
   </si>
   <si>
-    <t>Hộ ông Nguyễn Thanh Bằng</t>
+    <t>13/7/2004</t>
   </si>
   <si>
-    <t>X 567809</t>
+    <t>Đ 604502</t>
   </si>
   <si>
-    <t>844/24</t>
+    <t>1509/24</t>
   </si>
   <si>
-    <t>0914725225</t>
+    <t>0942000225</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,9 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15103,6 +15100,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="230" name="Rounded Rectangle 229"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="Rounded Rectangle 230"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15543,45 +15605,39 @@
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C2" s="8">
-        <v>408.8</v>
+        <v>262.7</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="7">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11">
-        <v>37812</v>
+      <c r="L2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="7">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="O2" s="7">
-        <v>-54.8</v>
-      </c>
-      <c r="P2" s="7">
-        <v>213.4</v>
+        <v>-16.7</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>34</v>
@@ -15599,7 +15655,7 @@
         <v>28</v>
       </c>
       <c r="W2" s="7">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="X2" s="7">
         <v>20</v>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,28 +113,31 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t/>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Cấp đổi</t>
+    <t>Nguyễn Trọng Ứng</t>
   </si>
   <si>
-    <t>Khối 3a, thị trấn Khe Sanh, huyện Hướng Hóa</t>
+    <t>13/8/2024</t>
   </si>
   <si>
-    <t>Hộ ông Nguyễn Hữu Sở</t>
+    <t>DB 922792</t>
   </si>
   <si>
-    <t>13/7/2004</t>
+    <t>0379205525</t>
   </si>
   <si>
-    <t>Đ 604502</t>
+    <t>Tách thửa</t>
   </si>
   <si>
-    <t>1509/24</t>
+    <t>044066002480</t>
   </si>
   <si>
-    <t>0942000225</t>
+    <t>Trần Thị Kiều</t>
+  </si>
+  <si>
+    <t>045176001455</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,6 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15165,6 +15171,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="231" name="Rounded Rectangle 230"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="Rounded Rectangle 231"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15511,13 +15582,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15603,62 +15674,62 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8">
-        <v>262.7</v>
+        <v>11136</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7">
+        <v>11136</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7">
-        <v>224</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>30</v>
+      <c r="N2" s="7">
+        <v>11136</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>45437</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7">
-        <v>246</v>
-      </c>
-      <c r="O2" s="7">
-        <v>-16.7</v>
-      </c>
-      <c r="Q2" s="7" t="s">
+      <c r="T2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>29</v>
+      <c r="V2" s="10" t="s">
+        <v>36</v>
       </c>
-      <c r="T2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="7">
-        <v>87</v>
-      </c>
-      <c r="X2" s="7">
-        <v>20</v>
+      <c r="AC2" s="7">
+        <v>16242</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,31 +113,34 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>Nguyễn Trọng Ứng</t>
+    <t>Nguyễn Long Vãng</t>
   </si>
   <si>
-    <t>13/8/2024</t>
+    <t>DL 424795</t>
   </si>
   <si>
-    <t>DB 922792</t>
+    <t>24,7</t>
   </si>
   <si>
-    <t>0379205525</t>
+    <t>1515/24</t>
   </si>
   <si>
-    <t>Tách thửa</t>
+    <t>0846302569</t>
   </si>
   <si>
-    <t>044066002480</t>
+    <t>045069003561</t>
   </si>
   <si>
-    <t>Trần Thị Kiều</t>
+    <t>Phan Thị Lạn</t>
   </si>
   <si>
-    <t>045176001455</t>
+    <t>045177000434</t>
+  </si>
+  <si>
+    <t>VP 16095</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15236,6 +15239,201 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="232" name="Rounded Rectangle 231"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="Rounded Rectangle 232"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="Rounded Rectangle 233"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="Rounded Rectangle 234"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15676,20 +15874,20 @@
     </row>
     <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="7">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C2" s="8">
-        <v>11136</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="7">
-        <v>11136</v>
+        <v>2601.3000000000002</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
@@ -15698,25 +15896,19 @@
       <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="11">
+        <v>45383</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7">
-        <v>11136</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>45437</v>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="T2" s="10" t="s">
@@ -15728,8 +15920,8 @@
       <c r="V2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="7">
-        <v>16242</v>
+      <c r="AC2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,34 +113,40 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>11136,0</t>
   </si>
   <si>
-    <t>Nguyễn Long Vãng</t>
+    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
   </si>
   <si>
-    <t>DL 424795</t>
+    <t>Nguyễn Thị Toan</t>
   </si>
   <si>
-    <t>24,7</t>
+    <t>13/8/2024</t>
   </si>
   <si>
-    <t>1515/24</t>
+    <t>DB 922792</t>
   </si>
   <si>
-    <t>0846302569</t>
+    <t>25/05/2024</t>
   </si>
   <si>
-    <t>045069003561</t>
+    <t>0379205525</t>
   </si>
   <si>
-    <t>Phan Thị Lạn</t>
+    <t>Tách thửa</t>
   </si>
   <si>
-    <t>045177000434</t>
+    <t>045165000964</t>
   </si>
   <si>
-    <t>VP 16095</t>
+    <t>Trần Văn Nam</t>
+  </si>
+  <si>
+    <t>045081005929</t>
+  </si>
+  <si>
+    <t>CH 16242</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15434,6 +15440,136 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="235" name="Rounded Rectangle 234"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="Rounded Rectangle 235"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="Rounded Rectangle 236"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15874,54 +16010,60 @@
     </row>
     <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7">
-        <v>147</v>
+        <v>55</v>
       </c>
-      <c r="C2" s="8">
-        <v>2601.3000000000002</v>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="7">
-        <v>2601.3000000000002</v>
+        <v>11136</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11">
-        <v>45383</v>
+      <c r="L2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="N2" s="7">
+        <v>11136</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="U2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="AC2" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/SODO/Khe Sanh/FixedRowCopy.xlsx
+++ b/SODO/Khe Sanh/FixedRowCopy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Số tờ</t>
   </si>
@@ -113,40 +113,19 @@
     <t>Năm sinh 2</t>
   </si>
   <si>
-    <t>11136,0</t>
+    <t>Khối 3b, thị trấn Khe Sanh, huyện Hướng Hóa</t>
   </si>
   <si>
-    <t>Khối 4, thị trấn Khe Sanh, huyện Hướng Hóa, tỉnh Quảng Trị</t>
+    <t>Nguyễn Thị Chữ</t>
   </si>
   <si>
-    <t>Nguyễn Thị Toan</t>
+    <t>0856060456</t>
   </si>
   <si>
-    <t>13/8/2024</t>
+    <t>Hợp thức hóa</t>
   </si>
   <si>
-    <t>DB 922792</t>
-  </si>
-  <si>
-    <t>25/05/2024</t>
-  </si>
-  <si>
-    <t>0379205525</t>
-  </si>
-  <si>
-    <t>Tách thửa</t>
-  </si>
-  <si>
-    <t>045165000964</t>
-  </si>
-  <si>
-    <t>Trần Văn Nam</t>
-  </si>
-  <si>
-    <t>045081005929</t>
-  </si>
-  <si>
-    <t>CH 16242</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -15570,6 +15549,71 @@
     <xdr:sp macro="[1]!Form" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="237" name="Rounded Rectangle 236"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="57150"/>
+          <a:ext cx="581025" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FORM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[1]!Form" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="Rounded Rectangle 237"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15916,13 +15960,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16008,62 +16052,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7">
-        <v>55</v>
+        <v>143</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="8">
+        <v>1825.4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7">
-        <v>11136</v>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="7" t="s">
+      <c r="Q2" s="11">
+        <v>45468</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7">
-        <v>11136</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="V2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
